--- a/Stocks/GCT.xlsx
+++ b/Stocks/GCT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Financials/Ações/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{8ED4B32B-C225-494B-AA6C-9AF7B16F9417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6615F667-5FAC-44FE-B097-8006374E11DA}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{8ED4B32B-C225-494B-AA6C-9AF7B16F9417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE037B48-E010-468D-A0B8-500701F6FB51}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{49A7E2C0-5FA9-401A-994E-082C7F248662}"/>
+    <workbookView xWindow="31170" yWindow="1440" windowWidth="23190" windowHeight="13170" activeTab="1" xr2:uid="{49A7E2C0-5FA9-401A-994E-082C7F248662}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -299,14 +299,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>674370</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>674370</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -323,8 +323,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9502140" y="60960"/>
-          <a:ext cx="0" cy="6141720"/>
+          <a:off x="9627870" y="60960"/>
+          <a:ext cx="0" cy="6408420"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -349,13 +349,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
@@ -723,14 +723,14 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -738,7 +738,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>2</v>
       </c>
@@ -750,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>4</v>
       </c>
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>6</v>
       </c>
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>7</v>
       </c>
@@ -785,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K8" t="s">
         <v>8</v>
       </c>
@@ -794,12 +794,12 @@
         <v>903.14811499999996</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K12" s="2" t="s">
         <v>9</v>
       </c>
@@ -811,49 +811,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516F51A5-A28B-4287-B996-DB1868A5B70D}">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22.69921875" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="18" max="18" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.8984375" customWidth="1"/>
-    <col min="22" max="22" width="7.59765625" customWidth="1"/>
-    <col min="23" max="23" width="7.8984375" customWidth="1"/>
-    <col min="24" max="24" width="6.796875" customWidth="1"/>
-    <col min="25" max="25" width="8.8984375" customWidth="1"/>
-    <col min="26" max="26" width="6.59765625" customWidth="1"/>
-    <col min="27" max="27" width="7.296875" customWidth="1"/>
-    <col min="28" max="28" width="7.69921875" customWidth="1"/>
-    <col min="29" max="29" width="7.296875" customWidth="1"/>
-    <col min="30" max="30" width="8.796875" customWidth="1"/>
-    <col min="31" max="31" width="10.09765625" customWidth="1"/>
-    <col min="32" max="32" width="7.796875" customWidth="1"/>
-    <col min="33" max="33" width="9.796875" customWidth="1"/>
-    <col min="34" max="34" width="7.796875" customWidth="1"/>
-    <col min="35" max="35" width="7.59765625" customWidth="1"/>
-    <col min="36" max="37" width="6.8984375" customWidth="1"/>
-    <col min="44" max="44" width="8.796875" customWidth="1"/>
+    <col min="1" max="2" width="22.75" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.875" customWidth="1"/>
+    <col min="24" max="24" width="7.625" customWidth="1"/>
+    <col min="25" max="25" width="7.875" customWidth="1"/>
+    <col min="26" max="26" width="6.75" customWidth="1"/>
+    <col min="27" max="27" width="8.875" customWidth="1"/>
+    <col min="28" max="28" width="6.625" customWidth="1"/>
+    <col min="29" max="29" width="7.25" customWidth="1"/>
+    <col min="30" max="30" width="7.75" customWidth="1"/>
+    <col min="31" max="31" width="7.25" customWidth="1"/>
+    <col min="32" max="32" width="8.75" customWidth="1"/>
+    <col min="33" max="33" width="10.125" customWidth="1"/>
+    <col min="34" max="34" width="7.75" customWidth="1"/>
+    <col min="35" max="35" width="9.75" customWidth="1"/>
+    <col min="36" max="36" width="7.75" customWidth="1"/>
+    <col min="37" max="37" width="7.625" customWidth="1"/>
+    <col min="38" max="39" width="6.875" customWidth="1"/>
+    <col min="46" max="46" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="R1" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -884,95 +884,95 @@
       <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>2022</v>
       </c>
-      <c r="Q2">
-        <f>+P2+1</f>
+      <c r="S2">
+        <f>+R2+1</f>
         <v>2023</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:AK2" si="0">+Q2+1</f>
+      <c r="T2">
+        <f t="shared" ref="T2:AM2" si="0">+S2+1</f>
         <v>2024</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1006,20 +1006,22 @@
       <c r="K3" s="7">
         <v>85.378</v>
       </c>
-      <c r="L3"/>
-      <c r="M3"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" s="4">
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3" s="4">
         <f>SUM(B3:E3)</f>
         <v>140.62799999999999</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="S3" s="4">
         <f>SUM(F3:I3)</f>
         <v>199.18399999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1053,24 +1055,26 @@
       <c r="K4" s="7">
         <v>225.489</v>
       </c>
-      <c r="L4"/>
-      <c r="M4" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4"/>
+      <c r="O4" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="6">
+      <c r="P4" s="6">
         <v>0.01</v>
       </c>
-      <c r="O4"/>
-      <c r="P4" s="4">
+      <c r="Q4"/>
+      <c r="R4" s="4">
         <f>SUM(B4:E4)</f>
         <v>349.44299999999998</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="S4" s="4">
         <f>SUM(F4:I4)</f>
         <v>504.64699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1114,48 +1118,50 @@
         <f t="shared" si="1"/>
         <v>310.86700000000002</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="3"/>
+      <c r="O5" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="6">
+      <c r="P5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="5">
-        <f>+P3+P4</f>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="5">
+        <f>+R3+R4</f>
         <v>490.07099999999997</v>
       </c>
-      <c r="Q5" s="5">
-        <f>+Q3+Q4</f>
+      <c r="S5" s="5">
+        <f>+S3+S4</f>
         <v>703.8309999999999</v>
       </c>
-      <c r="R5" s="11">
-        <f>+Q5*1.05</f>
-        <v>739.02254999999991</v>
-      </c>
-      <c r="S5" s="11">
-        <f t="shared" ref="S5:W5" si="2">+R5*1.05</f>
-        <v>775.97367749999989</v>
-      </c>
       <c r="T5" s="11">
-        <f t="shared" si="2"/>
-        <v>814.77236137499995</v>
+        <f>+S5*1.1</f>
+        <v>774.21409999999992</v>
       </c>
       <c r="U5" s="11">
-        <f t="shared" si="2"/>
-        <v>855.51097944374999</v>
+        <f t="shared" ref="U5:Y5" si="2">+T5*1.1</f>
+        <v>851.63550999999995</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="2"/>
-        <v>898.28652841593748</v>
+        <v>936.79906100000005</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="2"/>
-        <v>943.20085483673438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1030.4789671000001</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="2"/>
+        <v>1133.5268638100001</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="2"/>
+        <v>1246.8795501910001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1189,48 +1195,50 @@
       <c r="K6" s="7">
         <v>74.040000000000006</v>
       </c>
-      <c r="L6"/>
-      <c r="M6" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6"/>
+      <c r="O6" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="6">
+      <c r="P6" s="6">
         <v>0.11</v>
       </c>
-      <c r="O6"/>
-      <c r="P6" s="4">
-        <f t="shared" ref="P6:P7" si="3">SUM(B6:E6)</f>
+      <c r="Q6"/>
+      <c r="R6" s="4">
+        <f t="shared" ref="R6:R7" si="3">SUM(B6:E6)</f>
         <v>120.102</v>
       </c>
-      <c r="Q6" s="4">
-        <f t="shared" ref="Q6:Q7" si="4">SUM(F6:I6)</f>
+      <c r="S6" s="4">
+        <f t="shared" ref="S6:S7" si="4">SUM(F6:I6)</f>
         <v>161.21499999999997</v>
       </c>
-      <c r="R6" s="2">
-        <f t="shared" ref="R6:W7" si="5">+Q6*1.05</f>
+      <c r="T6" s="2">
+        <f t="shared" ref="T6:Y7" si="5">+S6*1.05</f>
         <v>169.27574999999999</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
         <f t="shared" si="5"/>
         <v>177.73953749999998</v>
       </c>
-      <c r="T6" s="2">
+      <c r="V6" s="2">
         <f t="shared" si="5"/>
         <v>186.626514375</v>
       </c>
-      <c r="U6" s="2">
+      <c r="W6" s="2">
         <f t="shared" si="5"/>
         <v>195.95784009375001</v>
       </c>
-      <c r="V6" s="2">
+      <c r="X6" s="2">
         <f t="shared" si="5"/>
         <v>205.75573209843751</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Y6" s="2">
         <f t="shared" si="5"/>
         <v>216.04351870335938</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1264,49 +1272,51 @@
       <c r="K7" s="7">
         <v>160.38</v>
       </c>
-      <c r="L7"/>
-      <c r="M7" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7"/>
+      <c r="O7" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="10">
-        <f>NPV(N6,R23:AK23)</f>
-        <v>990.52998748604557</v>
-      </c>
-      <c r="O7"/>
-      <c r="P7" s="4">
+      <c r="P7" s="10">
+        <f>NPV(P6,T23:AM23)</f>
+        <v>2436.7393833231154</v>
+      </c>
+      <c r="Q7"/>
+      <c r="R7" s="4">
         <f t="shared" si="3"/>
         <v>286.85500000000002</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="4"/>
         <v>353.983</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <f t="shared" si="5"/>
         <v>371.68215000000004</v>
       </c>
-      <c r="S7" s="2">
-        <f t="shared" ref="S7:W7" si="6">+R7*1.05</f>
+      <c r="U7" s="2">
+        <f t="shared" ref="U7:Y7" si="6">+T7*1.05</f>
         <v>390.26625750000005</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <f t="shared" si="6"/>
         <v>409.77957037500005</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <f t="shared" si="6"/>
         <v>430.26854889375005</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <f t="shared" si="6"/>
         <v>451.78197633843757</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <f t="shared" si="6"/>
         <v>474.37107515535945</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1350,49 +1360,49 @@
         <f t="shared" si="7"/>
         <v>234.42000000000002</v>
       </c>
-      <c r="L8"/>
-      <c r="M8" t="s">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8"/>
+      <c r="O8" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <f>+main!L6-main!L7</f>
         <v>27.516999999999996</v>
       </c>
-      <c r="O8"/>
-      <c r="P8" s="4">
-        <f>+P6+P7</f>
+      <c r="Q8"/>
+      <c r="R8" s="4">
+        <f>+R6+R7</f>
         <v>406.95699999999999</v>
       </c>
-      <c r="Q8" s="4">
-        <f>+Q6+Q7</f>
+      <c r="S8" s="4">
+        <f>+S6+S7</f>
         <v>515.19799999999998</v>
       </c>
-      <c r="R8" s="4">
-        <f t="shared" ref="R8:W8" si="8">+R6+R7</f>
+      <c r="T8" s="4">
+        <f t="shared" ref="T8:Y8" si="8">+T6+T7</f>
         <v>540.9579</v>
       </c>
-      <c r="S8" s="4">
+      <c r="U8" s="4">
         <f t="shared" si="8"/>
         <v>568.00579500000003</v>
       </c>
-      <c r="T8" s="4">
+      <c r="V8" s="4">
         <f t="shared" si="8"/>
         <v>596.40608474999999</v>
       </c>
-      <c r="U8" s="4">
+      <c r="W8" s="4">
         <f t="shared" si="8"/>
         <v>626.22638898750006</v>
       </c>
-      <c r="V8" s="4">
+      <c r="X8" s="4">
         <f t="shared" si="8"/>
         <v>657.53770843687505</v>
       </c>
-      <c r="W8" s="4">
+      <c r="Y8" s="4">
         <f t="shared" si="8"/>
         <v>690.41459385871883</v>
       </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -1405,8 +1415,10 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
-    </row>
-    <row r="9" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1450,49 +1462,49 @@
         <f t="shared" si="9"/>
         <v>76.447000000000003</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="3"/>
+      <c r="O9" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="7">
-        <f>+N7+N8</f>
-        <v>1018.0469874860455</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="5">
-        <f>+P5-P8</f>
+      <c r="P9" s="7">
+        <f>+P7+P8</f>
+        <v>2464.2563833231152</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="5">
+        <f>+R5-R8</f>
         <v>83.113999999999976</v>
       </c>
-      <c r="Q9" s="5">
-        <f>+Q5-Q8</f>
+      <c r="S9" s="5">
+        <f>+S5-S8</f>
         <v>188.63299999999992</v>
       </c>
-      <c r="R9" s="5">
-        <f t="shared" ref="R9:W9" si="10">+R5-R8</f>
-        <v>198.06464999999992</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" si="10"/>
-        <v>207.96788249999986</v>
-      </c>
       <c r="T9" s="5">
-        <f t="shared" si="10"/>
-        <v>218.36627662499995</v>
+        <f t="shared" ref="T9:Y9" si="10">+T5-T8</f>
+        <v>233.25619999999992</v>
       </c>
       <c r="U9" s="5">
         <f t="shared" si="10"/>
-        <v>229.28459045624993</v>
+        <v>283.62971499999992</v>
       </c>
       <c r="V9" s="5">
         <f t="shared" si="10"/>
-        <v>240.74881997906243</v>
+        <v>340.39297625000006</v>
       </c>
       <c r="W9" s="5">
         <f t="shared" si="10"/>
-        <v>252.78626097801555</v>
-      </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+        <v>404.25257811250003</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="10"/>
+        <v>475.98915537312507</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" si="10"/>
+        <v>556.4649563322813</v>
+      </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
@@ -1505,8 +1517,10 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-    </row>
-    <row r="10" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10" spans="1:39" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1540,49 +1554,49 @@
       <c r="K10" s="7">
         <v>19.46</v>
       </c>
-      <c r="L10"/>
-      <c r="M10" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10"/>
+      <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="N10">
-        <f>+N9/main!L4</f>
-        <v>24.61256670014544</v>
-      </c>
-      <c r="O10"/>
-      <c r="P10" s="4">
-        <f t="shared" ref="P10:P13" si="11">SUM(B10:E10)</f>
+      <c r="P10">
+        <f>+P9/main!L4</f>
+        <v>59.576498281844479</v>
+      </c>
+      <c r="Q10"/>
+      <c r="R10" s="4">
+        <f t="shared" ref="R10:R13" si="11">SUM(B10:E10)</f>
         <v>24.038</v>
       </c>
-      <c r="Q10" s="4">
-        <f t="shared" ref="Q10:Q13" si="12">SUM(F10:I10)</f>
+      <c r="S10" s="4">
+        <f t="shared" ref="S10:S13" si="12">SUM(F10:I10)</f>
         <v>41.386000000000003</v>
       </c>
-      <c r="R10" s="2">
-        <f>+Q10*1.05</f>
-        <v>43.455300000000008</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" ref="S10:W10" si="13">+R10*1.05</f>
-        <v>45.628065000000014</v>
-      </c>
       <c r="T10" s="2">
-        <f t="shared" si="13"/>
-        <v>47.909468250000018</v>
+        <f>+S10*1.08</f>
+        <v>44.696880000000007</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="13"/>
-        <v>50.304941662500021</v>
+        <f t="shared" ref="U10:Y10" si="13">+T10*1.08</f>
+        <v>48.272630400000011</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="13"/>
-        <v>52.820188745625025</v>
+        <v>52.134440832000017</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="13"/>
-        <v>55.46119818290628</v>
-      </c>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
+        <v>56.305196098560025</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="13"/>
+        <v>60.809611786444833</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="13"/>
+        <v>65.674380729360422</v>
+      </c>
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
@@ -1594,8 +1608,10 @@
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
-    </row>
-    <row r="11" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+    </row>
+    <row r="11" spans="1:39" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1629,48 +1645,48 @@
       <c r="K11" s="7">
         <v>26.28</v>
       </c>
-      <c r="L11"/>
-      <c r="M11" t="s">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11"/>
+      <c r="O11" t="s">
         <v>54</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>18</v>
       </c>
-      <c r="O11"/>
-      <c r="P11" s="4">
+      <c r="Q11"/>
+      <c r="R11" s="4">
         <f t="shared" si="11"/>
         <v>22.626999999999999</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="12"/>
         <v>30.008000000000003</v>
       </c>
-      <c r="R11" s="2">
-        <f t="shared" ref="R11:W11" si="14">+Q11*1.05</f>
+      <c r="T11" s="2">
+        <f t="shared" ref="T11:Y11" si="14">+S11*1.05</f>
         <v>31.508400000000005</v>
       </c>
-      <c r="S11" s="2">
+      <c r="U11" s="2">
         <f t="shared" si="14"/>
         <v>33.08382000000001</v>
       </c>
-      <c r="T11" s="2">
+      <c r="V11" s="2">
         <f t="shared" si="14"/>
         <v>34.738011000000014</v>
       </c>
-      <c r="U11" s="2">
+      <c r="W11" s="2">
         <f t="shared" si="14"/>
         <v>36.474911550000016</v>
       </c>
-      <c r="V11" s="2">
+      <c r="X11" s="2">
         <f t="shared" si="14"/>
         <v>38.298657127500022</v>
       </c>
-      <c r="W11" s="2">
+      <c r="Y11" s="2">
         <f t="shared" si="14"/>
         <v>40.213589983875025</v>
       </c>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
@@ -1682,8 +1698,10 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
-    </row>
-    <row r="12" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+    </row>
+    <row r="12" spans="1:39" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1717,49 +1735,49 @@
       <c r="K12" s="7">
         <v>3.097</v>
       </c>
-      <c r="L12"/>
-      <c r="M12" t="s">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12"/>
+      <c r="O12" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="6">
-        <f>+N10/N11-1</f>
-        <v>0.36736481667474674</v>
-      </c>
-      <c r="O12"/>
-      <c r="P12" s="4">
+      <c r="P12" s="6">
+        <f>+P10/P11-1</f>
+        <v>2.3098054601024711</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12" s="4">
         <f t="shared" si="11"/>
         <v>1.4259999999999999</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="12"/>
         <v>3.9249999999999998</v>
       </c>
-      <c r="R12" s="2">
-        <f t="shared" ref="R12:W12" si="15">+Q12*1.05</f>
+      <c r="T12" s="2">
+        <f t="shared" ref="T12:Y12" si="15">+S12*1.05</f>
         <v>4.1212499999999999</v>
       </c>
-      <c r="S12" s="2">
+      <c r="U12" s="2">
         <f t="shared" si="15"/>
         <v>4.3273124999999997</v>
       </c>
-      <c r="T12" s="2">
+      <c r="V12" s="2">
         <f t="shared" si="15"/>
         <v>4.5436781249999996</v>
       </c>
-      <c r="U12" s="2">
+      <c r="W12" s="2">
         <f t="shared" si="15"/>
         <v>4.7708620312500001</v>
       </c>
-      <c r="V12" s="2">
+      <c r="X12" s="2">
         <f t="shared" si="15"/>
         <v>5.0094051328125007</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Y12" s="2">
         <f t="shared" si="15"/>
         <v>5.2598753894531258</v>
       </c>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
@@ -1771,8 +1789,10 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+    </row>
+    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1806,212 +1826,218 @@
       <c r="K13" s="7">
         <v>0.16200000000000001</v>
       </c>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13" t="s">
         <v>9</v>
       </c>
-      <c r="O13"/>
-      <c r="P13" s="4">
+      <c r="Q13"/>
+      <c r="R13" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="12"/>
         <v>3.2360000000000002</v>
       </c>
-      <c r="R13" s="2">
-        <f>+Q13*1.01</f>
+      <c r="T13" s="2">
+        <f>+S13*1.01</f>
         <v>3.2683600000000004</v>
       </c>
-      <c r="S13" s="2">
-        <f t="shared" ref="S13:W13" si="16">+R13*1.01</f>
+      <c r="U13" s="2">
+        <f t="shared" ref="U13:Y13" si="16">+T13*1.01</f>
         <v>3.3010436000000003</v>
       </c>
-      <c r="T13" s="2">
+      <c r="V13" s="2">
         <f t="shared" si="16"/>
         <v>3.3340540360000004</v>
       </c>
-      <c r="U13" s="2">
+      <c r="W13" s="2">
         <f t="shared" si="16"/>
         <v>3.3673945763600006</v>
       </c>
-      <c r="V13" s="2">
+      <c r="X13" s="2">
         <f t="shared" si="16"/>
         <v>3.4010685221236008</v>
       </c>
-      <c r="W13" s="2">
+      <c r="Y13" s="2">
         <f t="shared" si="16"/>
         <v>3.4350792073448368</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" ref="B14:K14" si="17">+B10+B11+B12+B13</f>
+        <f>+B10+B11+B12+B13</f>
         <v>9.3889999999999993</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="17"/>
+        <f>+C10+C11+C12+C13</f>
         <v>8.7880000000000003</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="17"/>
+        <f>+D10+D11+D12+D13</f>
         <v>18.300999999999998</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="17"/>
+        <f>+E10+E11+E12+E13</f>
         <v>11.613000000000001</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="17"/>
+        <f>+F10+F11+F12+F13</f>
         <v>11.718</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="17"/>
+        <f>+G10+G11+G12+G13</f>
         <v>16.964000000000002</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="17"/>
+        <f>+H10+H11+H12+H13</f>
         <v>17.158999999999999</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="17"/>
+        <f>+I10+I11+I12+I13</f>
         <v>32.713999999999999</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="17"/>
+        <f>+J10+J11+J12+J13</f>
         <v>31.731000000000002</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="17"/>
+        <f>+K10+K11+K12+K13</f>
         <v>48.999000000000002</v>
       </c>
-      <c r="L14"/>
-      <c r="M14"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14"/>
-      <c r="O14" t="s">
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="4">
-        <f>+P10+P11+P12+P13</f>
+      <c r="R14" s="4">
+        <f>+R10+R11+R12+R13</f>
         <v>48.091000000000001</v>
       </c>
-      <c r="Q14" s="4">
-        <f>+Q10+Q11+Q12+Q13</f>
+      <c r="S14" s="4">
+        <f>+S10+S11+S12+S13</f>
         <v>78.555000000000007</v>
       </c>
-      <c r="R14" s="2">
-        <f t="shared" ref="R14:W14" si="18">+R10+R11+R12+R13</f>
-        <v>82.353310000000022</v>
-      </c>
-      <c r="S14" s="2">
-        <f t="shared" si="18"/>
-        <v>86.340241100000028</v>
-      </c>
       <c r="T14" s="2">
-        <f t="shared" si="18"/>
-        <v>90.525211411000029</v>
+        <f>+T10+T11+T12+T13</f>
+        <v>83.594890000000021</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="18"/>
-        <v>94.918109820110033</v>
+        <f>+U10+U11+U12+U13</f>
+        <v>88.984806500000033</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="18"/>
-        <v>99.529319528061151</v>
+        <f>+V10+V11+V12+V13</f>
+        <v>94.750183993000022</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="18"/>
-        <v>104.36974276357927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <f>+W10+W11+W12+W13</f>
+        <v>100.91836425617004</v>
+      </c>
+      <c r="X14" s="2">
+        <f>+X10+X11+X12+X13</f>
+        <v>107.51874256888095</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>+Y10+Y11+Y12+Y13</f>
+        <v>114.58292531003342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" ref="B15:K15" si="19">+B9-B14</f>
+        <f>+B9-B14</f>
         <v>7.4810000000000052</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="19"/>
+        <f>+C9-C14</f>
         <v>8.2329999999999863</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="19"/>
+        <f>+D9-D14</f>
         <v>4.247999999999994</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="19"/>
+        <f>+E9-E14</f>
         <v>15.060999999999991</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="19"/>
+        <f>+F9-F14</f>
         <v>17.855999999999998</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="19"/>
+        <f>+G9-G14</f>
         <v>23.400000000000002</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="19"/>
+        <f>+H9-H14</f>
         <v>31.699000000000005</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="19"/>
+        <f>+I9-I14</f>
         <v>37.123000000000047</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="19"/>
+        <f>+J9-J14</f>
         <v>34.817</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="19"/>
+        <f>+K9-K14</f>
         <v>27.448</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="5">
-        <f>+P9-P14</f>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="5">
+        <f>+R9-R14</f>
         <v>35.022999999999975</v>
       </c>
-      <c r="Q15" s="5">
-        <f>+Q9-Q14</f>
+      <c r="S15" s="5">
+        <f>+S9-S14</f>
         <v>110.07799999999992</v>
       </c>
-      <c r="R15" s="11">
-        <f>+R9-R14</f>
-        <v>115.71133999999989</v>
-      </c>
-      <c r="S15" s="11">
-        <f t="shared" ref="S15:W15" si="20">+S9-S14</f>
-        <v>121.62764139999983</v>
-      </c>
       <c r="T15" s="11">
-        <f t="shared" si="20"/>
-        <v>127.84106521399993</v>
+        <f>+T9-T14</f>
+        <v>149.6613099999999</v>
       </c>
       <c r="U15" s="11">
-        <f t="shared" si="20"/>
-        <v>134.3664806361399</v>
+        <f>+U9-U14</f>
+        <v>194.64490849999987</v>
       </c>
       <c r="V15" s="11">
-        <f t="shared" si="20"/>
-        <v>141.2195004510013</v>
+        <f>+V9-V14</f>
+        <v>245.64279225700005</v>
       </c>
       <c r="W15" s="11">
-        <f t="shared" si="20"/>
-        <v>148.41651821443628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f>+W9-W14</f>
+        <v>303.33421385633</v>
+      </c>
+      <c r="X15" s="11">
+        <f>+X9-X14</f>
+        <v>368.47041280424412</v>
+      </c>
+      <c r="Y15" s="11">
+        <f>+Y9-Y14</f>
+        <v>441.88203102224787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2055,52 +2081,52 @@
         <f>-0.059+2.244</f>
         <v>2.1850000000000001</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="9">
-        <f t="shared" ref="P16:P19" si="21">SUM(B16:E16)</f>
+      <c r="P16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" ref="R16:R19" si="17">SUM(B16:E16)</f>
         <v>-9.600000000000003E-2</v>
       </c>
-      <c r="Q16" s="9">
-        <f t="shared" ref="Q16:Q19" si="22">SUM(F16:I16)</f>
+      <c r="S16" s="9">
+        <f t="shared" ref="S16:S19" si="18">SUM(F16:I16)</f>
         <v>2.0640000000000001</v>
       </c>
-      <c r="R16" s="12">
-        <f>+Q37*$N$4</f>
+      <c r="T16" s="12">
+        <f>+S37*$P$4</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="S16" s="12">
-        <f t="shared" ref="S16:W16" si="23">+R37*$N$4</f>
-        <v>1.2936398749999993</v>
-      </c>
-      <c r="T16" s="12">
-        <f t="shared" si="23"/>
-        <v>2.3671933376874978</v>
-      </c>
       <c r="U16" s="12">
-        <f t="shared" si="23"/>
-        <v>3.5037425200453414</v>
+        <f t="shared" ref="U16:Y16" si="19">+T37*$P$4</f>
+        <v>1.5822146199999991</v>
       </c>
       <c r="V16" s="12">
-        <f t="shared" si="23"/>
-        <v>4.7065244753431008</v>
+        <f t="shared" si="19"/>
+        <v>3.2788677383699985</v>
       </c>
       <c r="W16" s="12">
-        <f t="shared" si="23"/>
-        <v>5.9789389319246657</v>
-      </c>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
+        <f t="shared" si="19"/>
+        <v>5.4244808329991443</v>
+      </c>
+      <c r="X16" s="12">
+        <f t="shared" si="19"/>
+        <v>8.0798147963286269</v>
+      </c>
+      <c r="Y16" s="12">
+        <f t="shared" si="19"/>
+        <v>11.312534975641132</v>
+      </c>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
@@ -2113,8 +2139,10 @@
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
       <c r="AK16" s="12"/>
-    </row>
-    <row r="17" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+    </row>
+    <row r="17" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2148,44 +2176,46 @@
       <c r="K17" s="7">
         <v>-1.107</v>
       </c>
-      <c r="L17"/>
-      <c r="M17"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="N17"/>
       <c r="O17"/>
-      <c r="P17" s="4">
-        <f t="shared" si="21"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17" s="4">
+        <f t="shared" si="17"/>
         <v>-4.8540000000000001</v>
       </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="22"/>
+      <c r="S17" s="4">
+        <f t="shared" si="18"/>
         <v>2.0860000000000003</v>
       </c>
-      <c r="R17" s="2">
-        <f>+Q17*1.05</f>
+      <c r="T17" s="2">
+        <f>+S17*1.05</f>
         <v>2.1903000000000006</v>
       </c>
-      <c r="S17" s="2">
-        <f t="shared" ref="S17:W17" si="24">+R17*1.05</f>
+      <c r="U17" s="2">
+        <f t="shared" ref="U17:Y17" si="20">+T17*1.05</f>
         <v>2.2998150000000006</v>
       </c>
-      <c r="T17" s="2">
-        <f t="shared" si="24"/>
+      <c r="V17" s="2">
+        <f t="shared" si="20"/>
         <v>2.4148057500000006</v>
       </c>
-      <c r="U17" s="2">
-        <f t="shared" si="24"/>
+      <c r="W17" s="2">
+        <f t="shared" si="20"/>
         <v>2.535546037500001</v>
       </c>
-      <c r="V17" s="2">
-        <f t="shared" si="24"/>
+      <c r="X17" s="2">
+        <f t="shared" si="20"/>
         <v>2.6623233393750012</v>
       </c>
-      <c r="W17" s="2">
-        <f t="shared" si="24"/>
+      <c r="Y17" s="2">
+        <f t="shared" si="20"/>
         <v>2.7954395063437514</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2219,44 +2249,46 @@
       <c r="K18" s="7">
         <v>2E-3</v>
       </c>
-      <c r="L18"/>
-      <c r="M18"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="P18" s="4">
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18" s="4">
+        <f t="shared" si="17"/>
+        <v>1.085</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="18"/>
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="T18" s="2">
+        <f>+S18*1.01</f>
+        <v>0.92011000000000009</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" ref="U18:Y18" si="21">+T18*1.01</f>
+        <v>0.92931110000000006</v>
+      </c>
+      <c r="V18" s="2">
         <f t="shared" si="21"/>
-        <v>1.085</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="22"/>
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="R18" s="2">
-        <f>+Q18*1.01</f>
-        <v>0.92011000000000009</v>
-      </c>
-      <c r="S18" s="2">
-        <f t="shared" ref="S18:W18" si="25">+R18*1.01</f>
-        <v>0.92931110000000006</v>
-      </c>
-      <c r="T18" s="2">
-        <f t="shared" si="25"/>
         <v>0.93860421100000002</v>
       </c>
-      <c r="U18" s="2">
-        <f t="shared" si="25"/>
+      <c r="W18" s="2">
+        <f t="shared" si="21"/>
         <v>0.94799025311000007</v>
       </c>
-      <c r="V18" s="2">
-        <f t="shared" si="25"/>
+      <c r="X18" s="2">
+        <f t="shared" si="21"/>
         <v>0.95747015564110005</v>
       </c>
-      <c r="W18" s="2">
-        <f t="shared" si="25"/>
+      <c r="Y18" s="2">
+        <f t="shared" si="21"/>
         <v>0.9670448571975111</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2290,23 +2322,19 @@
       <c r="K19" s="7">
         <v>0.50600000000000001</v>
       </c>
-      <c r="L19"/>
-      <c r="M19"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
       <c r="N19"/>
       <c r="O19"/>
-      <c r="P19" s="4">
-        <f t="shared" si="21"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19" s="4">
+        <f t="shared" si="17"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="22"/>
+      <c r="S19" s="4">
+        <f t="shared" si="18"/>
         <v>-0.14400000000000002</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.15</v>
       </c>
       <c r="T19" s="2">
         <v>0.15</v>
@@ -2320,89 +2348,97 @@
       <c r="W19" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="7">
-        <f t="shared" ref="B20:K20" si="26">+B15+B16+B17+B18+B19</f>
+        <f t="shared" ref="B20:K20" si="22">+B15+B16+B17+B18+B19</f>
         <v>6.3460000000000054</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>7.335999999999987</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>2.630999999999994</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>14.850999999999992</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>19.696999999999999</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>22.658999999999999</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>29.791000000000007</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>42.848000000000049</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>33.319999999999993</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>29.033999999999999</v>
       </c>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="P20" s="4">
-        <f>+P15+P16+P17+P18+P19</f>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20" s="4">
+        <f>+R15+R16+R17+R18+R19</f>
         <v>31.16399999999998</v>
       </c>
-      <c r="Q20" s="4">
-        <f>+Q15+Q16+Q17+Q18+Q19</f>
+      <c r="S20" s="4">
+        <f>+S15+S16+S17+S18+S19</f>
         <v>114.99499999999991</v>
       </c>
-      <c r="R20" s="2">
-        <f t="shared" ref="R20:W20" si="27">+R15+R16+R17+R18+R19</f>
-        <v>119.2517499999999</v>
-      </c>
-      <c r="S20" s="2">
-        <f t="shared" si="27"/>
-        <v>126.30040737499984</v>
-      </c>
       <c r="T20" s="2">
-        <f t="shared" si="27"/>
-        <v>133.71166851268745</v>
+        <f t="shared" ref="T20:Y20" si="23">+T15+T16+T17+T18+T19</f>
+        <v>153.20171999999991</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="27"/>
-        <v>141.50375944679524</v>
+        <f t="shared" si="23"/>
+        <v>199.60624921999988</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="27"/>
-        <v>149.69581842136049</v>
+        <f t="shared" si="23"/>
+        <v>252.42506995637007</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="27"/>
-        <v>158.30794150990221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>312.39223097993914</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="23"/>
+        <v>380.3200210955888</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" si="23"/>
+        <v>457.10705036143025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2436,44 +2472,46 @@
       <c r="K21" s="7">
         <v>2.0649999999999999</v>
       </c>
-      <c r="L21"/>
-      <c r="M21"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="4">
-        <f t="shared" ref="P21:P22" si="28">SUM(B21:E21)</f>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21" s="4">
+        <f t="shared" ref="R21:R22" si="24">SUM(B21:E21)</f>
         <v>7.1920000000000002</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="S21" s="4">
         <f>SUM(F21:I21)</f>
         <v>20.887</v>
       </c>
-      <c r="R21" s="2">
-        <f>+R20*0.15</f>
-        <v>17.887762499999983</v>
-      </c>
-      <c r="S21" s="2">
-        <f t="shared" ref="S21:W21" si="29">+S20*0.15</f>
-        <v>18.945061106249973</v>
-      </c>
       <c r="T21" s="2">
-        <f t="shared" si="29"/>
-        <v>20.056750276903117</v>
+        <f>+T20*0.15</f>
+        <v>22.980257999999985</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="29"/>
-        <v>21.225563917019286</v>
+        <f t="shared" ref="U21:Y21" si="25">+U20*0.15</f>
+        <v>29.94093738299998</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="29"/>
-        <v>22.454372763204073</v>
+        <f t="shared" si="25"/>
+        <v>37.863760493455509</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="29"/>
-        <v>23.74619122648533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>46.858834646990871</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="25"/>
+        <v>57.048003164338319</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" si="25"/>
+        <v>68.566057554214538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2507,24 +2545,20 @@
       <c r="K22" s="7">
         <v>-0.26400000000000001</v>
       </c>
-      <c r="L22"/>
-      <c r="M22"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
       <c r="N22"/>
       <c r="O22"/>
-      <c r="P22" s="4">
-        <f t="shared" si="28"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22" s="4">
+        <f t="shared" si="24"/>
         <v>1.4569999999999999</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="S22" s="4">
         <f>SUM(F22:I22)</f>
         <v>-0.27800000000000002</v>
       </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
@@ -2537,282 +2571,292 @@
       <c r="W22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" ref="B23:J23" si="30">+B20-B21+B22</f>
+        <f t="shared" ref="B23:J23" si="26">+B20-B21+B22</f>
         <v>4.6700000000000053</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>4.3829999999999867</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0.45999999999999402</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>15.915999999999991</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>15.746999999999998</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>18.083000000000002</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>24.193000000000005</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>35.807000000000045</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>27.082999999999995</v>
       </c>
       <c r="K23" s="8">
         <f>+K20-K21+K22</f>
         <v>26.704999999999998</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="5">
-        <f>+P20-P21+P22</f>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="5">
+        <f>+R20-R21+R22</f>
         <v>25.428999999999981</v>
       </c>
-      <c r="Q23" s="5">
-        <f>+Q20-Q21+Q22</f>
+      <c r="S23" s="5">
+        <f>+S20-S21+S22</f>
         <v>93.829999999999899</v>
       </c>
-      <c r="R23" s="11">
-        <f t="shared" ref="R23:W23" si="31">+R20-R21+R22</f>
-        <v>101.36398749999992</v>
-      </c>
-      <c r="S23" s="11">
-        <f t="shared" si="31"/>
-        <v>107.35534626874986</v>
-      </c>
       <c r="T23" s="11">
-        <f t="shared" si="31"/>
-        <v>113.65491823578434</v>
+        <f t="shared" ref="T23:Y23" si="27">+T20-T21+T22</f>
+        <v>130.22146199999992</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="31"/>
-        <v>120.27819552977596</v>
+        <f t="shared" si="27"/>
+        <v>169.6653118369999</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="31"/>
-        <v>127.24144565815641</v>
+        <f t="shared" si="27"/>
+        <v>214.56130946291455</v>
       </c>
       <c r="W23" s="11">
-        <f t="shared" si="31"/>
-        <v>134.56175028341687</v>
+        <f t="shared" si="27"/>
+        <v>265.53339633294826</v>
       </c>
       <c r="X23" s="11">
-        <f>+W23*(1-$N$5)</f>
-        <v>134.56175028341687</v>
+        <f t="shared" si="27"/>
+        <v>323.2720179312505</v>
       </c>
       <c r="Y23" s="11">
-        <f t="shared" ref="Y23:AK23" si="32">+X23*(1-$N$5)</f>
-        <v>134.56175028341687</v>
+        <f t="shared" si="27"/>
+        <v>388.54099280721573</v>
       </c>
       <c r="Z23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f>+Y23*(1-$P$5)</f>
+        <v>388.54099280721573</v>
       </c>
       <c r="AA23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f t="shared" ref="AA23:AM23" si="28">+Z23*(1-$P$5)</f>
+        <v>388.54099280721573</v>
       </c>
       <c r="AB23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
       </c>
       <c r="AC23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
       </c>
       <c r="AD23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
       </c>
       <c r="AE23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
       </c>
       <c r="AF23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
       </c>
       <c r="AG23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
       </c>
       <c r="AH23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
       </c>
       <c r="AI23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
       </c>
       <c r="AJ23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
       </c>
       <c r="AK23" s="11">
-        <f t="shared" si="32"/>
-        <v>134.56175028341687</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
+      </c>
+      <c r="AL23" s="11">
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
+      </c>
+      <c r="AM23" s="11">
+        <f t="shared" si="28"/>
+        <v>388.54099280721573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" ref="B24:K24" si="33">+B23/B25</f>
+        <f t="shared" ref="B24:K24" si="29">+B23/B25</f>
         <v>0.3592311560950916</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.27608455784046987</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1.6582114106357394E-2</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.39113262335078453</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.3867473779242474</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.44167462265555607</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.59341337885329626</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.8782493349052406</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.66398360053914973</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.64668507848463597</v>
       </c>
-      <c r="L24"/>
-      <c r="M24"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24">
-        <f>+P23/P25</f>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24">
+        <f>+R23/R25</f>
         <v>1.0452954869144342</v>
       </c>
-      <c r="Q24">
-        <f>+Q23/Q25</f>
+      <c r="S24">
+        <f>+S23/S25</f>
         <v>2.2997759550568411</v>
       </c>
-      <c r="R24" s="2">
-        <f t="shared" ref="R24:AK24" si="34">+R23/R25</f>
-        <v>2.4844342018670176</v>
-      </c>
-      <c r="S24" s="2">
-        <f t="shared" si="34"/>
-        <v>2.6312825748233224</v>
-      </c>
       <c r="T24" s="2">
-        <f t="shared" si="34"/>
-        <v>2.7856852619909236</v>
+        <f t="shared" ref="T24:AM24" si="30">+T23/T25</f>
+        <v>3.1917317184263907</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="34"/>
-        <v>2.9480219758819595</v>
+        <f t="shared" si="30"/>
+        <v>4.1585015940525807</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.1186914335638929</v>
+        <f t="shared" si="30"/>
+        <v>5.2589037662615503</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>6.5082310577756939</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>7.9234063069486798</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2981123070677341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
+      </c>
+      <c r="AM24" s="2">
+        <f t="shared" si="30"/>
+        <v>9.5231507280395249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2846,182 +2890,184 @@
       <c r="K25" s="7">
         <v>41.295216000000003</v>
       </c>
-      <c r="L25"/>
-      <c r="M25"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25"/>
       <c r="O25"/>
-      <c r="P25" s="7">
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25" s="7">
         <f>AVERAGE(B25:E25)</f>
         <v>24.327092499999999</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="S25" s="7">
         <f>AVERAGE(F25:I25)</f>
         <v>40.799626500000002</v>
       </c>
-      <c r="R25" s="2">
-        <f>+Q25</f>
+      <c r="T25" s="2">
+        <f>+S25</f>
         <v>40.799626500000002</v>
       </c>
-      <c r="S25" s="2">
-        <f t="shared" ref="S25:AK25" si="35">+R25</f>
+      <c r="U25" s="2">
+        <f t="shared" ref="U25:AM25" si="31">+T25</f>
         <v>40.799626500000002</v>
       </c>
-      <c r="T25" s="2">
-        <f t="shared" si="35"/>
+      <c r="V25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="U25" s="2">
-        <f t="shared" si="35"/>
+      <c r="W25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="V25" s="2">
-        <f t="shared" si="35"/>
+      <c r="X25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="W25" s="2">
-        <f t="shared" si="35"/>
+      <c r="Y25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" si="35"/>
+      <c r="Z25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="Y25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AA25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="Z25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AB25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AA25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AC25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AB25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AD25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AC25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AE25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AD25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AF25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AE25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AG25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AF25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AH25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AG25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AI25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AH25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AJ25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AI25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AK25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AJ25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AL25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AK25" s="2">
-        <f t="shared" si="35"/>
+      <c r="AM25" s="2">
+        <f t="shared" si="31"/>
         <v>40.799626500000002</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="6">
-        <f t="shared" ref="B27:K27" si="36">+B9/B5</f>
+        <f>+B9/B5</f>
         <v>0.15003290585368459</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="36"/>
+        <f>+C9/C5</f>
         <v>0.13723624694622935</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="36"/>
+        <f>+D9/D5</f>
         <v>0.17616681510648596</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="36"/>
+        <f>+E9/E5</f>
         <v>0.21236584822139418</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="36"/>
+        <f>+F9/F5</f>
         <v>0.23141388295499893</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="36"/>
+        <f>+G9/G5</f>
         <v>0.26359302553386016</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="36"/>
+        <f>+H9/H5</f>
         <v>0.27422586674299959</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="36"/>
+        <f>+I9/I5</f>
         <v>0.28535529977077451</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="36"/>
+        <f>+J9/J5</f>
         <v>0.26505016389394487</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="36"/>
+        <f>+K9/K5</f>
         <v>0.24591545580585908</v>
       </c>
-      <c r="P27" s="6">
-        <f>+P9/P5</f>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="R27" s="6">
+        <f>+R9/R5</f>
         <v>0.16959583407302203</v>
       </c>
-      <c r="Q27" s="6">
-        <f>+Q9/Q5</f>
+      <c r="S27" s="6">
+        <f>+S9/S5</f>
         <v>0.2680089396460229</v>
       </c>
-      <c r="R27" s="6">
-        <f t="shared" ref="R27:W27" si="37">+R9/R5</f>
-        <v>0.2680089396460229</v>
-      </c>
-      <c r="S27" s="6">
-        <f t="shared" si="37"/>
-        <v>0.26800893964602285</v>
-      </c>
       <c r="T27" s="6">
-        <f t="shared" si="37"/>
-        <v>0.26800893964602296</v>
+        <f>+T9/T5</f>
+        <v>0.30128126057120369</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" si="37"/>
-        <v>0.2680089396460229</v>
+        <f>+U9/U5</f>
+        <v>0.33304120327251258</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" si="37"/>
-        <v>0.2680089396460229</v>
+        <f>+V9/V5</f>
+        <v>0.36335751221467122</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="37"/>
-        <v>0.2680089396460229</v>
-      </c>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
+        <f>+W9/W5</f>
+        <v>0.3922958071140043</v>
+      </c>
+      <c r="X27" s="6">
+        <f>+X9/X5</f>
+        <v>0.41991872497245869</v>
+      </c>
+      <c r="Y27" s="6">
+        <f>+Y9/Y5</f>
+        <v>0.4462860556555287</v>
+      </c>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
@@ -3034,85 +3080,87 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="6">
-        <f t="shared" ref="B28:K28" si="38">+B15/B5</f>
+        <f>+B15/B5</f>
         <v>6.6532078760605504E-2</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="38"/>
+        <f>+C15/C5</f>
         <v>6.6380707426608621E-2</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="38"/>
+        <f>+D15/D5</f>
         <v>3.3188018562789995E-2</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="38"/>
+        <f>+E15/E5</f>
         <v>0.11990860163689047</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="38"/>
+        <f>+F15/F5</f>
         <v>0.1397215897086786</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="38"/>
+        <f>+G15/G5</f>
         <v>0.15281133677267683</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="38"/>
+        <f>+H15/H5</f>
         <v>0.1779173472079566</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="38"/>
+        <f>+I15/I5</f>
         <v>0.1516852784826162</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="38"/>
+        <f>+J15/J5</f>
         <v>0.13867060702493658</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="38"/>
+        <f>+K15/K5</f>
         <v>8.8294994322330761E-2</v>
       </c>
-      <c r="P28" s="6">
-        <f>+P15/P5</f>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="R28" s="6">
+        <f>+R15/R5</f>
         <v>7.1465155048962239E-2</v>
       </c>
-      <c r="Q28" s="6">
-        <f>+Q15/Q5</f>
+      <c r="S28" s="6">
+        <f>+S15/S5</f>
         <v>0.15639833994240085</v>
       </c>
-      <c r="R28" s="6">
-        <f t="shared" ref="R28:W28" si="39">+R15/R5</f>
-        <v>0.15657349021352585</v>
-      </c>
-      <c r="S28" s="6">
-        <f t="shared" si="39"/>
-        <v>0.15674196809336982</v>
-      </c>
       <c r="T28" s="6">
-        <f t="shared" si="39"/>
-        <v>0.15690402776826756</v>
+        <f>+T15/T5</f>
+        <v>0.1933073939108057</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" si="39"/>
-        <v>0.1570599137412643</v>
+        <f>+U15/U5</f>
+        <v>0.22855424206066735</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" si="39"/>
-        <v>0.15720986120100403</v>
+        <f>+V15/V5</f>
+        <v>0.26221502826314214</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" si="39"/>
-        <v>0.15735409637656317</v>
-      </c>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
+        <f>+W15/W5</f>
+        <v>0.29436235337241362</v>
+      </c>
+      <c r="X28" s="6">
+        <f>+X15/X5</f>
+        <v>0.32506544358882217</v>
+      </c>
+      <c r="Y28" s="6">
+        <f>+Y15/Y5</f>
+        <v>0.35439031055931525</v>
+      </c>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
@@ -3125,85 +3173,87 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="6">
-        <f t="shared" ref="B29:K29" si="40">+B23/B5</f>
+        <f>+B23/B5</f>
         <v>4.1532523434303949E-2</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="40"/>
+        <f>+C23/C5</f>
         <v>3.5339079394002812E-2</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="40"/>
+        <f>+D23/D5</f>
         <v>3.5938061532210974E-3</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="40"/>
+        <f>+E23/E5</f>
         <v>0.12671570969077411</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="40"/>
+        <f>+F23/F5</f>
         <v>0.12321885490269724</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="40"/>
+        <f>+G23/G5</f>
         <v>0.11808920525044082</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="40"/>
+        <f>+H23/H5</f>
         <v>0.13578833341752403</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="40"/>
+        <f>+I23/I5</f>
         <v>0.14630807765070275</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="40"/>
+        <f>+J23/J5</f>
         <v>0.1078673076386925</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="40"/>
+        <f>+K23/K5</f>
         <v>8.5904904669842713E-2</v>
       </c>
-      <c r="P29" s="6">
-        <f>+P23/P5</f>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="R29" s="6">
+        <f>+R23/R5</f>
         <v>5.1888399844104184E-2</v>
       </c>
-      <c r="Q29" s="6">
-        <f>+Q23/Q5</f>
+      <c r="S29" s="6">
+        <f>+S23/S5</f>
         <v>0.13331325275527778</v>
       </c>
-      <c r="R29" s="6">
-        <f t="shared" ref="R29:W29" si="41">+R23/R5</f>
-        <v>0.13715953254741678</v>
-      </c>
-      <c r="S29" s="6">
-        <f t="shared" si="41"/>
-        <v>0.13834921129621677</v>
-      </c>
       <c r="T29" s="6">
-        <f t="shared" si="41"/>
-        <v>0.13949284932049202</v>
+        <f>+T23/T5</f>
+        <v>0.16819825678710829</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" si="41"/>
-        <v>0.14059222899509763</v>
+        <f>+U23/U5</f>
+        <v>0.19922291854293384</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" si="41"/>
-        <v>0.14164906367073921</v>
+        <f>+V23/V5</f>
+        <v>0.22903664018821485</v>
       </c>
       <c r="W29" s="6">
-        <f t="shared" si="41"/>
-        <v>0.14266500034789426</v>
-      </c>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
+        <f>+W23/W5</f>
+        <v>0.25767958862878981</v>
+      </c>
+      <c r="X29" s="6">
+        <f>+X23/X5</f>
+        <v>0.28519131592935659</v>
+      </c>
+      <c r="Y29" s="6">
+        <f>+Y23/Y5</f>
+        <v>0.31161068665188874</v>
+      </c>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
@@ -3216,8 +3266,10 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3230,74 +3282,74 @@
         <v>0.16848418756815733</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" ref="D30:K30" si="42">+D21/D20</f>
+        <f t="shared" ref="D30:K30" si="32">+D21/D20</f>
         <v>0.75028506271379869</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v>0.15992189078176564</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v>0.19068893740163476</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v>0.18840195948629684</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v>0.18760699540129566</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v>0.16973954443614617</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v>0.18382352941176475</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v>7.1123510367155751E-2</v>
       </c>
-      <c r="M30" t="s">
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="O30" t="s">
         <v>9</v>
       </c>
-      <c r="P30" s="6">
-        <f t="shared" ref="P30:Q30" si="43">+P21/P20</f>
+      <c r="R30" s="6">
+        <f t="shared" ref="R30:S30" si="33">+R21/R20</f>
         <v>0.23077910409446814</v>
       </c>
-      <c r="Q30" s="6">
-        <f t="shared" si="43"/>
+      <c r="S30" s="6">
+        <f t="shared" si="33"/>
         <v>0.18163398408626477</v>
       </c>
-      <c r="R30" s="6">
-        <f t="shared" ref="R30:W30" si="44">+R21/R20</f>
+      <c r="T30" s="6">
+        <f t="shared" ref="T30:Y30" si="34">+T21/T20</f>
         <v>0.15</v>
       </c>
-      <c r="S30" s="6">
-        <f t="shared" si="44"/>
+      <c r="U30" s="6">
+        <f t="shared" si="34"/>
         <v>0.15</v>
       </c>
-      <c r="T30" s="6">
-        <f t="shared" si="44"/>
+      <c r="V30" s="6">
+        <f t="shared" si="34"/>
         <v>0.15</v>
       </c>
-      <c r="U30" s="6">
-        <f t="shared" si="44"/>
+      <c r="W30" s="6">
+        <f t="shared" si="34"/>
         <v>0.15</v>
       </c>
-      <c r="V30" s="6">
-        <f t="shared" si="44"/>
+      <c r="X30" s="6">
+        <f t="shared" si="34"/>
         <v>0.15</v>
       </c>
-      <c r="W30" s="6">
-        <f t="shared" si="44"/>
+      <c r="Y30" s="6">
+        <f t="shared" si="34"/>
         <v>0.15</v>
       </c>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
@@ -3310,8 +3362,10 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3340,36 +3394,36 @@
         <f>+K5/G5-1</f>
         <v>1.0300855482269968</v>
       </c>
-      <c r="Q32" s="6">
-        <f>+Q5/P5-1</f>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="S32" s="6">
+        <f>+S5/R5-1</f>
         <v>0.43618169612158231</v>
       </c>
-      <c r="R32" s="6">
-        <f t="shared" ref="R32:W32" si="45">+R5/Q5-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="S32" s="6">
-        <f t="shared" si="45"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="T32" s="6">
-        <f t="shared" si="45"/>
-        <v>5.0000000000000044E-2</v>
+        <f>+T5/S5-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="45"/>
-        <v>5.0000000000000044E-2</v>
+        <f>+U5/T5-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" si="45"/>
-        <v>5.0000000000000044E-2</v>
+        <f>+V5/U5-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" si="45"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
+        <f>+W5/V5-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="X32" s="6">
+        <f>+X5/W5-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Y32" s="6">
+        <f>+Y5/X5-1</f>
+        <v>0.10000000000000009</v>
+      </c>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
@@ -3382,8 +3436,10 @@
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -3412,36 +3468,36 @@
         <f>+K9/G9-1</f>
         <v>0.89394014468338101</v>
       </c>
-      <c r="Q33" s="6">
-        <f>+Q9/P9-1</f>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="S33" s="6">
+        <f>+S9/R9-1</f>
         <v>1.2695695069422719</v>
       </c>
-      <c r="R33" s="6">
-        <f t="shared" ref="R33:W33" si="46">+R9/Q9-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="S33" s="6">
-        <f t="shared" si="46"/>
-        <v>4.9999999999999822E-2</v>
-      </c>
       <c r="T33" s="6">
-        <f t="shared" si="46"/>
-        <v>5.0000000000000488E-2</v>
+        <f>+T9/S9-1</f>
+        <v>0.23656094108666048</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" si="46"/>
-        <v>4.9999999999999822E-2</v>
+        <f>+U9/T9-1</f>
+        <v>0.21595788236282676</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" si="46"/>
-        <v>5.0000000000000044E-2</v>
+        <f>+V9/U9-1</f>
+        <v>0.20013157383738922</v>
       </c>
       <c r="W33" s="6">
-        <f t="shared" si="46"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
+        <f>+W9/V9-1</f>
+        <v>0.18760552161216926</v>
+      </c>
+      <c r="X33" s="6">
+        <f>+X9/W9-1</f>
+        <v>0.17745484171200854</v>
+      </c>
+      <c r="Y33" s="6">
+        <f>+Y9/X9-1</f>
+        <v>0.16907066064576992</v>
+      </c>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
@@ -3454,8 +3510,10 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3484,36 +3542,36 @@
         <f>+K15/G15-1</f>
         <v>0.17299145299145291</v>
       </c>
-      <c r="Q34" s="6">
-        <f>+Q15/P15-1</f>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="S34" s="6">
+        <f>+S15/R15-1</f>
         <v>2.1430203009450932</v>
       </c>
-      <c r="R34" s="6">
-        <f t="shared" ref="R34:W34" si="47">+R15/Q15-1</f>
-        <v>5.1175893457366506E-2</v>
-      </c>
-      <c r="S34" s="6">
-        <f t="shared" si="47"/>
-        <v>5.1129832218691273E-2</v>
-      </c>
       <c r="T34" s="6">
-        <f t="shared" si="47"/>
-        <v>5.108562282783935E-2</v>
+        <f t="shared" ref="T34:Y34" si="35">+T15/S15-1</f>
+        <v>0.35959328839550153</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="47"/>
-        <v>5.1043187188848371E-2</v>
+        <f t="shared" si="35"/>
+        <v>0.30056932215814491</v>
       </c>
       <c r="V34" s="6">
-        <f t="shared" si="47"/>
-        <v>5.1002450778026676E-2</v>
+        <f t="shared" si="35"/>
+        <v>0.26200471489342969</v>
       </c>
       <c r="W34" s="6">
-        <f t="shared" si="47"/>
-        <v>5.09633424594369E-2</v>
-      </c>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
+        <f t="shared" si="35"/>
+        <v>0.23485900428525963</v>
+      </c>
+      <c r="X34" s="6">
+        <f t="shared" si="35"/>
+        <v>0.21473409847121627</v>
+      </c>
+      <c r="Y34" s="6">
+        <f t="shared" si="35"/>
+        <v>0.19923341377481196</v>
+      </c>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
@@ -3526,8 +3584,10 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -3556,36 +3616,36 @@
         <f>+K23/G23-1</f>
         <v>0.47680141569429835</v>
       </c>
-      <c r="Q35" s="6">
-        <f>+Q23/P23-1</f>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="S35" s="6">
+        <f>+S23/R23-1</f>
         <v>2.6898816312084617</v>
       </c>
-      <c r="R35" s="6">
-        <f t="shared" ref="R35:W35" si="48">+R23/Q23-1</f>
-        <v>8.0294015773207272E-2</v>
-      </c>
-      <c r="S35" s="6">
-        <f t="shared" si="48"/>
-        <v>5.9107370541731541E-2</v>
-      </c>
       <c r="T35" s="6">
-        <f t="shared" si="48"/>
-        <v>5.8679629715546078E-2</v>
+        <f t="shared" ref="T35:Y35" si="36">+T23/S23-1</f>
+        <v>0.38784463391239532</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="48"/>
-        <v>5.8275324964391029E-2</v>
+        <f t="shared" si="36"/>
+        <v>0.30289822607735739</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="48"/>
-        <v>5.7892871585828232E-2</v>
+        <f t="shared" si="36"/>
+        <v>0.2646150656242976</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="48"/>
-        <v>5.7530819359967067E-2</v>
-      </c>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
+        <f t="shared" si="36"/>
+        <v>0.2375642048308988</v>
+      </c>
+      <c r="X35" s="6">
+        <f t="shared" si="36"/>
+        <v>0.2174439162669568</v>
+      </c>
+      <c r="Y35" s="6">
+        <f t="shared" si="36"/>
+        <v>0.20190109646250254</v>
+      </c>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
@@ -3598,8 +3658,10 @@
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
-    </row>
-    <row r="37" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+    </row>
+    <row r="37" spans="1:39" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
@@ -3607,35 +3669,35 @@
         <f>+main!L6-main!L7</f>
         <v>27.516999999999996</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="S37" s="11">
         <v>28</v>
       </c>
-      <c r="R37" s="11">
-        <f>+Q37+R23</f>
-        <v>129.36398749999992</v>
-      </c>
-      <c r="S37" s="11">
-        <f t="shared" ref="S37:W37" si="49">+R37+S23</f>
-        <v>236.71933376874978</v>
-      </c>
       <c r="T37" s="11">
-        <f t="shared" si="49"/>
-        <v>350.37425200453413</v>
+        <f>+S37+T23</f>
+        <v>158.22146199999992</v>
       </c>
       <c r="U37" s="11">
-        <f t="shared" si="49"/>
-        <v>470.65244753431011</v>
+        <f t="shared" ref="U37:Y37" si="37">+T37+U23</f>
+        <v>327.88677383699985</v>
       </c>
       <c r="V37" s="11">
-        <f t="shared" si="49"/>
-        <v>597.89389319246652</v>
+        <f t="shared" si="37"/>
+        <v>542.4480832999144</v>
       </c>
       <c r="W37" s="11">
-        <f t="shared" si="49"/>
-        <v>732.45564347588333</v>
-      </c>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
+        <f t="shared" si="37"/>
+        <v>807.9814796328626</v>
+      </c>
+      <c r="X37" s="11">
+        <f t="shared" si="37"/>
+        <v>1131.2534975641131</v>
+      </c>
+      <c r="Y37" s="11">
+        <f t="shared" si="37"/>
+        <v>1519.7944903713287</v>
+      </c>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
@@ -3648,27 +3710,29 @@
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11"/>
       <c r="AK37" s="11"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="N43" s="7"/>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="N46" s="6"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="P43" s="7"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="P46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stocks/GCT.xlsx
+++ b/Stocks/GCT.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{8ED4B32B-C225-494B-AA6C-9AF7B16F9417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE037B48-E010-468D-A0B8-500701F6FB51}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{8ED4B32B-C225-494B-AA6C-9AF7B16F9417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEBB094A-9F63-4D90-B2E7-DF923097FE14}"/>
   <bookViews>
-    <workbookView xWindow="31170" yWindow="1440" windowWidth="23190" windowHeight="13170" activeTab="1" xr2:uid="{49A7E2C0-5FA9-401A-994E-082C7F248662}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{49A7E2C0-5FA9-401A-994E-082C7F248662}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="model " sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" iterate="1" iterateCount="10000"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>GCT</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -349,13 +361,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
@@ -811,49 +823,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516F51A5-A28B-4287-B996-DB1868A5B70D}">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T25" sqref="T25"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="22.75" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="20" max="20" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" customWidth="1"/>
-    <col min="22" max="22" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.875" customWidth="1"/>
-    <col min="24" max="24" width="7.625" customWidth="1"/>
-    <col min="25" max="25" width="7.875" customWidth="1"/>
-    <col min="26" max="26" width="6.75" customWidth="1"/>
-    <col min="27" max="27" width="8.875" customWidth="1"/>
-    <col min="28" max="28" width="6.625" customWidth="1"/>
-    <col min="29" max="29" width="7.25" customWidth="1"/>
-    <col min="30" max="30" width="7.75" customWidth="1"/>
-    <col min="31" max="31" width="7.25" customWidth="1"/>
-    <col min="32" max="32" width="8.75" customWidth="1"/>
-    <col min="33" max="33" width="10.125" customWidth="1"/>
-    <col min="34" max="34" width="7.75" customWidth="1"/>
-    <col min="35" max="35" width="9.75" customWidth="1"/>
-    <col min="36" max="36" width="7.75" customWidth="1"/>
-    <col min="37" max="37" width="7.625" customWidth="1"/>
-    <col min="38" max="39" width="6.875" customWidth="1"/>
-    <col min="46" max="46" width="8.75" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.875" customWidth="1"/>
+    <col min="27" max="27" width="7.625" customWidth="1"/>
+    <col min="28" max="28" width="7.875" customWidth="1"/>
+    <col min="29" max="29" width="6.75" customWidth="1"/>
+    <col min="30" max="30" width="8.875" customWidth="1"/>
+    <col min="31" max="31" width="6.625" customWidth="1"/>
+    <col min="32" max="32" width="7.25" customWidth="1"/>
+    <col min="33" max="33" width="7.75" customWidth="1"/>
+    <col min="34" max="34" width="7.25" customWidth="1"/>
+    <col min="35" max="35" width="8.75" customWidth="1"/>
+    <col min="36" max="36" width="10.125" customWidth="1"/>
+    <col min="37" max="37" width="7.75" customWidth="1"/>
+    <col min="38" max="38" width="9.75" customWidth="1"/>
+    <col min="39" max="39" width="7.75" customWidth="1"/>
+    <col min="40" max="40" width="7.625" customWidth="1"/>
+    <col min="41" max="42" width="6.875" customWidth="1"/>
+    <col min="49" max="49" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="T1" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="W1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -884,95 +896,107 @@
       <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2">
         <v>2022</v>
       </c>
-      <c r="S2">
-        <f>+R2+1</f>
+      <c r="V2">
+        <f>+U2+1</f>
         <v>2023</v>
       </c>
-      <c r="T2">
-        <f t="shared" ref="T2:AM2" si="0">+S2+1</f>
+      <c r="W2">
+        <f t="shared" ref="W2:AP2" si="0">+V2+1</f>
         <v>2024</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1008,20 +1032,23 @@
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
       <c r="Q3"/>
-      <c r="R3" s="4">
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="4">
         <f>SUM(B3:E3)</f>
         <v>140.62799999999999</v>
       </c>
-      <c r="S3" s="4">
+      <c r="V3" s="4">
         <f>SUM(F3:I3)</f>
         <v>199.18399999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1057,24 +1084,27 @@
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4"/>
-      <c r="O4" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4"/>
+      <c r="R4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="6">
+      <c r="S4" s="6">
         <v>0.01</v>
       </c>
-      <c r="Q4"/>
-      <c r="R4" s="4">
+      <c r="T4"/>
+      <c r="U4" s="4">
         <f>SUM(B4:E4)</f>
         <v>349.44299999999998</v>
       </c>
-      <c r="S4" s="4">
+      <c r="V4" s="4">
         <f>SUM(F4:I4)</f>
         <v>504.64699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1120,48 +1150,51 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="3"/>
-      <c r="O5" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="6">
+      <c r="S5" s="6">
         <v>0</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="5">
-        <f>+R3+R4</f>
+      <c r="T5" s="3"/>
+      <c r="U5" s="5">
+        <f>+U3+U4</f>
         <v>490.07099999999997</v>
       </c>
-      <c r="S5" s="5">
-        <f>+S3+S4</f>
+      <c r="V5" s="5">
+        <f>+V3+V4</f>
         <v>703.8309999999999</v>
       </c>
-      <c r="T5" s="11">
-        <f>+S5*1.1</f>
+      <c r="W5" s="11">
+        <f>+V5*1.1</f>
         <v>774.21409999999992</v>
       </c>
-      <c r="U5" s="11">
-        <f t="shared" ref="U5:Y5" si="2">+T5*1.1</f>
+      <c r="X5" s="11">
+        <f t="shared" ref="X5:AB5" si="2">+W5*1.1</f>
         <v>851.63550999999995</v>
       </c>
-      <c r="V5" s="11">
+      <c r="Y5" s="11">
         <f t="shared" si="2"/>
         <v>936.79906100000005</v>
       </c>
-      <c r="W5" s="11">
+      <c r="Z5" s="11">
         <f t="shared" si="2"/>
         <v>1030.4789671000001</v>
       </c>
-      <c r="X5" s="11">
+      <c r="AA5" s="11">
         <f t="shared" si="2"/>
         <v>1133.5268638100001</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="AB5" s="11">
         <f t="shared" si="2"/>
         <v>1246.8795501910001</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1197,48 +1230,51 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6"/>
-      <c r="O6" t="s">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6"/>
+      <c r="R6" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="6">
+      <c r="S6" s="6">
         <v>0.11</v>
       </c>
-      <c r="Q6"/>
-      <c r="R6" s="4">
-        <f t="shared" ref="R6:R7" si="3">SUM(B6:E6)</f>
+      <c r="T6"/>
+      <c r="U6" s="4">
+        <f t="shared" ref="U6:U7" si="3">SUM(B6:E6)</f>
         <v>120.102</v>
       </c>
-      <c r="S6" s="4">
-        <f t="shared" ref="S6:S7" si="4">SUM(F6:I6)</f>
+      <c r="V6" s="4">
+        <f t="shared" ref="V6:V7" si="4">SUM(F6:I6)</f>
         <v>161.21499999999997</v>
       </c>
-      <c r="T6" s="2">
-        <f t="shared" ref="T6:Y7" si="5">+S6*1.05</f>
+      <c r="W6" s="2">
+        <f t="shared" ref="W6:AB7" si="5">+V6*1.05</f>
         <v>169.27574999999999</v>
       </c>
-      <c r="U6" s="2">
+      <c r="X6" s="2">
         <f t="shared" si="5"/>
         <v>177.73953749999998</v>
       </c>
-      <c r="V6" s="2">
+      <c r="Y6" s="2">
         <f t="shared" si="5"/>
         <v>186.626514375</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Z6" s="2">
         <f t="shared" si="5"/>
         <v>195.95784009375001</v>
       </c>
-      <c r="X6" s="2">
+      <c r="AA6" s="2">
         <f t="shared" si="5"/>
         <v>205.75573209843751</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AB6" s="2">
         <f t="shared" si="5"/>
         <v>216.04351870335938</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1274,49 +1310,52 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7"/>
-      <c r="O7" t="s">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7"/>
+      <c r="R7" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="10">
-        <f>NPV(P6,T23:AM23)</f>
+      <c r="S7" s="10">
+        <f>NPV(S6,W23:AP23)</f>
         <v>2436.7393833231154</v>
       </c>
-      <c r="Q7"/>
-      <c r="R7" s="4">
+      <c r="T7"/>
+      <c r="U7" s="4">
         <f t="shared" si="3"/>
         <v>286.85500000000002</v>
       </c>
-      <c r="S7" s="4">
+      <c r="V7" s="4">
         <f t="shared" si="4"/>
         <v>353.983</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <f t="shared" si="5"/>
         <v>371.68215000000004</v>
       </c>
-      <c r="U7" s="2">
-        <f t="shared" ref="U7:Y7" si="6">+T7*1.05</f>
+      <c r="X7" s="2">
+        <f t="shared" ref="X7:AB7" si="6">+W7*1.05</f>
         <v>390.26625750000005</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <f t="shared" si="6"/>
         <v>409.77957037500005</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <f t="shared" si="6"/>
         <v>430.26854889375005</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <f t="shared" si="6"/>
         <v>451.78197633843757</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <f t="shared" si="6"/>
         <v>474.37107515535945</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1362,50 +1401,50 @@
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8"/>
-      <c r="O8" t="s">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8"/>
+      <c r="R8" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="2">
+      <c r="S8" s="2">
         <f>+main!L6-main!L7</f>
         <v>27.516999999999996</v>
       </c>
-      <c r="Q8"/>
-      <c r="R8" s="4">
-        <f>+R6+R7</f>
+      <c r="T8"/>
+      <c r="U8" s="4">
+        <f>+U6+U7</f>
         <v>406.95699999999999</v>
       </c>
-      <c r="S8" s="4">
-        <f>+S6+S7</f>
+      <c r="V8" s="4">
+        <f>+V6+V7</f>
         <v>515.19799999999998</v>
       </c>
-      <c r="T8" s="4">
-        <f t="shared" ref="T8:Y8" si="8">+T6+T7</f>
+      <c r="W8" s="4">
+        <f t="shared" ref="W8:AB8" si="8">+W6+W7</f>
         <v>540.9579</v>
       </c>
-      <c r="U8" s="4">
+      <c r="X8" s="4">
         <f t="shared" si="8"/>
         <v>568.00579500000003</v>
       </c>
-      <c r="V8" s="4">
+      <c r="Y8" s="4">
         <f t="shared" si="8"/>
         <v>596.40608474999999</v>
       </c>
-      <c r="W8" s="4">
+      <c r="Z8" s="4">
         <f t="shared" si="8"/>
         <v>626.22638898750006</v>
       </c>
-      <c r="X8" s="4">
+      <c r="AA8" s="4">
         <f t="shared" si="8"/>
         <v>657.53770843687505</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="AB8" s="4">
         <f t="shared" si="8"/>
         <v>690.41459385871883</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
@@ -1417,8 +1456,11 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
-    </row>
-    <row r="9" spans="1:39" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+    </row>
+    <row r="9" spans="1:42" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1464,50 +1506,50 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="3"/>
-      <c r="O9" t="s">
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="7">
-        <f>+P7+P8</f>
+      <c r="S9" s="7">
+        <f>+S7+S8</f>
         <v>2464.2563833231152</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="5">
-        <f>+R5-R8</f>
+      <c r="T9" s="3"/>
+      <c r="U9" s="5">
+        <f>+U5-U8</f>
         <v>83.113999999999976</v>
       </c>
-      <c r="S9" s="5">
-        <f>+S5-S8</f>
+      <c r="V9" s="5">
+        <f>+V5-V8</f>
         <v>188.63299999999992</v>
       </c>
-      <c r="T9" s="5">
-        <f t="shared" ref="T9:Y9" si="10">+T5-T8</f>
+      <c r="W9" s="5">
+        <f t="shared" ref="W9:AB9" si="10">+W5-W8</f>
         <v>233.25619999999992</v>
       </c>
-      <c r="U9" s="5">
+      <c r="X9" s="5">
         <f t="shared" si="10"/>
         <v>283.62971499999992</v>
       </c>
-      <c r="V9" s="5">
+      <c r="Y9" s="5">
         <f t="shared" si="10"/>
         <v>340.39297625000006</v>
       </c>
-      <c r="W9" s="5">
+      <c r="Z9" s="5">
         <f t="shared" si="10"/>
         <v>404.25257811250003</v>
       </c>
-      <c r="X9" s="5">
+      <c r="AA9" s="5">
         <f t="shared" si="10"/>
         <v>475.98915537312507</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="AB9" s="5">
         <f t="shared" si="10"/>
         <v>556.4649563322813</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
@@ -1519,8 +1561,11 @@
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
-    </row>
-    <row r="10" spans="1:39" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+    </row>
+    <row r="10" spans="1:42" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1556,50 +1601,50 @@
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10"/>
-      <c r="O10" t="s">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10"/>
+      <c r="R10" t="s">
         <v>53</v>
       </c>
-      <c r="P10">
-        <f>+P9/main!L4</f>
+      <c r="S10">
+        <f>+S9/main!L4</f>
         <v>59.576498281844479</v>
       </c>
-      <c r="Q10"/>
-      <c r="R10" s="4">
-        <f t="shared" ref="R10:R13" si="11">SUM(B10:E10)</f>
+      <c r="T10"/>
+      <c r="U10" s="4">
+        <f t="shared" ref="U10:U13" si="11">SUM(B10:E10)</f>
         <v>24.038</v>
       </c>
-      <c r="S10" s="4">
-        <f t="shared" ref="S10:S13" si="12">SUM(F10:I10)</f>
+      <c r="V10" s="4">
+        <f t="shared" ref="V10:V13" si="12">SUM(F10:I10)</f>
         <v>41.386000000000003</v>
       </c>
-      <c r="T10" s="2">
-        <f>+S10*1.08</f>
+      <c r="W10" s="2">
+        <f>+V10*1.08</f>
         <v>44.696880000000007</v>
       </c>
-      <c r="U10" s="2">
-        <f t="shared" ref="U10:Y10" si="13">+T10*1.08</f>
+      <c r="X10" s="2">
+        <f t="shared" ref="X10:AB10" si="13">+W10*1.08</f>
         <v>48.272630400000011</v>
       </c>
-      <c r="V10" s="2">
+      <c r="Y10" s="2">
         <f t="shared" si="13"/>
         <v>52.134440832000017</v>
       </c>
-      <c r="W10" s="2">
+      <c r="Z10" s="2">
         <f t="shared" si="13"/>
         <v>56.305196098560025</v>
       </c>
-      <c r="X10" s="2">
+      <c r="AA10" s="2">
         <f t="shared" si="13"/>
         <v>60.809611786444833</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AB10" s="2">
         <f t="shared" si="13"/>
         <v>65.674380729360422</v>
       </c>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
@@ -1610,8 +1655,11 @@
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
-    </row>
-    <row r="11" spans="1:39" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+    </row>
+    <row r="11" spans="1:42" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1647,49 +1695,49 @@
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11"/>
-      <c r="O11" t="s">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11"/>
+      <c r="R11" t="s">
         <v>54</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>18</v>
       </c>
-      <c r="Q11"/>
-      <c r="R11" s="4">
+      <c r="T11"/>
+      <c r="U11" s="4">
         <f t="shared" si="11"/>
         <v>22.626999999999999</v>
       </c>
-      <c r="S11" s="4">
+      <c r="V11" s="4">
         <f t="shared" si="12"/>
         <v>30.008000000000003</v>
       </c>
-      <c r="T11" s="2">
-        <f t="shared" ref="T11:Y11" si="14">+S11*1.05</f>
+      <c r="W11" s="2">
+        <f t="shared" ref="W11:AB11" si="14">+V11*1.05</f>
         <v>31.508400000000005</v>
       </c>
-      <c r="U11" s="2">
+      <c r="X11" s="2">
         <f t="shared" si="14"/>
         <v>33.08382000000001</v>
       </c>
-      <c r="V11" s="2">
+      <c r="Y11" s="2">
         <f t="shared" si="14"/>
         <v>34.738011000000014</v>
       </c>
-      <c r="W11" s="2">
+      <c r="Z11" s="2">
         <f t="shared" si="14"/>
         <v>36.474911550000016</v>
       </c>
-      <c r="X11" s="2">
+      <c r="AA11" s="2">
         <f t="shared" si="14"/>
         <v>38.298657127500022</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AB11" s="2">
         <f t="shared" si="14"/>
         <v>40.213589983875025</v>
       </c>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
@@ -1700,8 +1748,11 @@
       <c r="AK11" s="11"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
-    </row>
-    <row r="12" spans="1:39" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+    </row>
+    <row r="12" spans="1:42" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1737,50 +1788,50 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12"/>
-      <c r="O12" t="s">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12"/>
+      <c r="R12" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="6">
-        <f>+P10/P11-1</f>
+      <c r="S12" s="6">
+        <f>+S10/S11-1</f>
         <v>2.3098054601024711</v>
       </c>
-      <c r="Q12"/>
-      <c r="R12" s="4">
+      <c r="T12"/>
+      <c r="U12" s="4">
         <f t="shared" si="11"/>
         <v>1.4259999999999999</v>
       </c>
-      <c r="S12" s="4">
+      <c r="V12" s="4">
         <f t="shared" si="12"/>
         <v>3.9249999999999998</v>
       </c>
-      <c r="T12" s="2">
-        <f t="shared" ref="T12:Y12" si="15">+S12*1.05</f>
+      <c r="W12" s="2">
+        <f t="shared" ref="W12:AB12" si="15">+V12*1.05</f>
         <v>4.1212499999999999</v>
       </c>
-      <c r="U12" s="2">
+      <c r="X12" s="2">
         <f t="shared" si="15"/>
         <v>4.3273124999999997</v>
       </c>
-      <c r="V12" s="2">
+      <c r="Y12" s="2">
         <f t="shared" si="15"/>
         <v>4.5436781249999996</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Z12" s="2">
         <f t="shared" si="15"/>
         <v>4.7708620312500001</v>
       </c>
-      <c r="X12" s="2">
+      <c r="AA12" s="2">
         <f t="shared" si="15"/>
         <v>5.0094051328125007</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AB12" s="2">
         <f t="shared" si="15"/>
         <v>5.2598753894531258</v>
       </c>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
@@ -1791,8 +1842,11 @@
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
-    </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+    </row>
+    <row r="13" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1828,216 +1882,224 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13" t="s">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13" t="s">
         <v>9</v>
       </c>
-      <c r="Q13"/>
-      <c r="R13" s="4">
+      <c r="T13"/>
+      <c r="U13" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S13" s="4">
+      <c r="V13" s="4">
         <f t="shared" si="12"/>
         <v>3.2360000000000002</v>
       </c>
-      <c r="T13" s="2">
-        <f>+S13*1.01</f>
+      <c r="W13" s="2">
+        <f>+V13*1.01</f>
         <v>3.2683600000000004</v>
       </c>
-      <c r="U13" s="2">
-        <f t="shared" ref="U13:Y13" si="16">+T13*1.01</f>
+      <c r="X13" s="2">
+        <f t="shared" ref="X13:AB13" si="16">+W13*1.01</f>
         <v>3.3010436000000003</v>
       </c>
-      <c r="V13" s="2">
+      <c r="Y13" s="2">
         <f t="shared" si="16"/>
         <v>3.3340540360000004</v>
       </c>
-      <c r="W13" s="2">
+      <c r="Z13" s="2">
         <f t="shared" si="16"/>
         <v>3.3673945763600006</v>
       </c>
-      <c r="X13" s="2">
+      <c r="AA13" s="2">
         <f t="shared" si="16"/>
         <v>3.4010685221236008</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AB13" s="2">
         <f t="shared" si="16"/>
         <v>3.4350792073448368</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="7">
-        <f>+B10+B11+B12+B13</f>
+        <f t="shared" ref="B14:K14" si="17">+B10+B11+B12+B13</f>
         <v>9.3889999999999993</v>
       </c>
       <c r="C14" s="7">
-        <f>+C10+C11+C12+C13</f>
+        <f t="shared" si="17"/>
         <v>8.7880000000000003</v>
       </c>
       <c r="D14" s="7">
-        <f>+D10+D11+D12+D13</f>
+        <f t="shared" si="17"/>
         <v>18.300999999999998</v>
       </c>
       <c r="E14" s="7">
-        <f>+E10+E11+E12+E13</f>
+        <f t="shared" si="17"/>
         <v>11.613000000000001</v>
       </c>
       <c r="F14" s="7">
-        <f>+F10+F11+F12+F13</f>
+        <f t="shared" si="17"/>
         <v>11.718</v>
       </c>
       <c r="G14" s="7">
-        <f>+G10+G11+G12+G13</f>
+        <f t="shared" si="17"/>
         <v>16.964000000000002</v>
       </c>
       <c r="H14" s="7">
-        <f>+H10+H11+H12+H13</f>
+        <f t="shared" si="17"/>
         <v>17.158999999999999</v>
       </c>
       <c r="I14" s="7">
-        <f>+I10+I11+I12+I13</f>
+        <f t="shared" si="17"/>
         <v>32.713999999999999</v>
       </c>
       <c r="J14" s="7">
-        <f>+J10+J11+J12+J13</f>
+        <f t="shared" si="17"/>
         <v>31.731000000000002</v>
       </c>
       <c r="K14" s="7">
-        <f>+K10+K11+K12+K13</f>
+        <f t="shared" si="17"/>
         <v>48.999000000000002</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14" t="s">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="4">
-        <f>+R10+R11+R12+R13</f>
+      <c r="U14" s="4">
+        <f t="shared" ref="U14:AB14" si="18">+U10+U11+U12+U13</f>
         <v>48.091000000000001</v>
       </c>
-      <c r="S14" s="4">
-        <f>+S10+S11+S12+S13</f>
+      <c r="V14" s="4">
+        <f t="shared" si="18"/>
         <v>78.555000000000007</v>
       </c>
-      <c r="T14" s="2">
-        <f>+T10+T11+T12+T13</f>
+      <c r="W14" s="2">
+        <f t="shared" si="18"/>
         <v>83.594890000000021</v>
       </c>
-      <c r="U14" s="2">
-        <f>+U10+U11+U12+U13</f>
+      <c r="X14" s="2">
+        <f t="shared" si="18"/>
         <v>88.984806500000033</v>
       </c>
-      <c r="V14" s="2">
-        <f>+V10+V11+V12+V13</f>
+      <c r="Y14" s="2">
+        <f t="shared" si="18"/>
         <v>94.750183993000022</v>
       </c>
-      <c r="W14" s="2">
-        <f>+W10+W11+W12+W13</f>
+      <c r="Z14" s="2">
+        <f t="shared" si="18"/>
         <v>100.91836425617004</v>
       </c>
-      <c r="X14" s="2">
-        <f>+X10+X11+X12+X13</f>
+      <c r="AA14" s="2">
+        <f t="shared" si="18"/>
         <v>107.51874256888095</v>
       </c>
-      <c r="Y14" s="2">
-        <f>+Y10+Y11+Y12+Y13</f>
+      <c r="AB14" s="2">
+        <f t="shared" si="18"/>
         <v>114.58292531003342</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="8">
-        <f>+B9-B14</f>
+        <f t="shared" ref="B15:K15" si="19">+B9-B14</f>
         <v>7.4810000000000052</v>
       </c>
       <c r="C15" s="8">
-        <f>+C9-C14</f>
+        <f t="shared" si="19"/>
         <v>8.2329999999999863</v>
       </c>
       <c r="D15" s="8">
-        <f>+D9-D14</f>
+        <f t="shared" si="19"/>
         <v>4.247999999999994</v>
       </c>
       <c r="E15" s="8">
-        <f>+E9-E14</f>
+        <f t="shared" si="19"/>
         <v>15.060999999999991</v>
       </c>
       <c r="F15" s="8">
-        <f>+F9-F14</f>
+        <f t="shared" si="19"/>
         <v>17.855999999999998</v>
       </c>
       <c r="G15" s="8">
-        <f>+G9-G14</f>
+        <f t="shared" si="19"/>
         <v>23.400000000000002</v>
       </c>
       <c r="H15" s="8">
-        <f>+H9-H14</f>
+        <f t="shared" si="19"/>
         <v>31.699000000000005</v>
       </c>
       <c r="I15" s="8">
-        <f>+I9-I14</f>
+        <f t="shared" si="19"/>
         <v>37.123000000000047</v>
       </c>
-      <c r="J15" s="8">
-        <f>+J9-J14</f>
-        <v>34.817</v>
+      <c r="J15" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="K15" s="8">
-        <f>+K9-K14</f>
+        <f t="shared" si="19"/>
         <v>27.448</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="5">
-        <f>+R9-R14</f>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="5">
+        <f t="shared" ref="U15:AB15" si="20">+U9-U14</f>
         <v>35.022999999999975</v>
       </c>
-      <c r="S15" s="5">
-        <f>+S9-S14</f>
+      <c r="V15" s="5">
+        <f t="shared" si="20"/>
         <v>110.07799999999992</v>
       </c>
-      <c r="T15" s="11">
-        <f>+T9-T14</f>
+      <c r="W15" s="11">
+        <f t="shared" si="20"/>
         <v>149.6613099999999</v>
       </c>
-      <c r="U15" s="11">
-        <f>+U9-U14</f>
+      <c r="X15" s="11">
+        <f t="shared" si="20"/>
         <v>194.64490849999987</v>
       </c>
-      <c r="V15" s="11">
-        <f>+V9-V14</f>
+      <c r="Y15" s="11">
+        <f t="shared" si="20"/>
         <v>245.64279225700005</v>
       </c>
-      <c r="W15" s="11">
-        <f>+W9-W14</f>
+      <c r="Z15" s="11">
+        <f t="shared" si="20"/>
         <v>303.33421385633</v>
       </c>
-      <c r="X15" s="11">
-        <f>+X9-X14</f>
+      <c r="AA15" s="11">
+        <f t="shared" si="20"/>
         <v>368.47041280424412</v>
       </c>
-      <c r="Y15" s="11">
-        <f>+Y9-Y14</f>
+      <c r="AB15" s="11">
+        <f t="shared" si="20"/>
         <v>441.88203102224787</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2083,53 +2145,53 @@
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="9">
-        <f t="shared" ref="R16:R19" si="17">SUM(B16:E16)</f>
+      <c r="R16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" ref="U16:U19" si="21">SUM(B16:E16)</f>
         <v>-9.600000000000003E-2</v>
       </c>
-      <c r="S16" s="9">
-        <f t="shared" ref="S16:S19" si="18">SUM(F16:I16)</f>
+      <c r="V16" s="9">
+        <f t="shared" ref="V16:V19" si="22">SUM(F16:I16)</f>
         <v>2.0640000000000001</v>
       </c>
-      <c r="T16" s="12">
-        <f>+S37*$P$4</f>
+      <c r="W16" s="12">
+        <f>+V37*$S$4</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="U16" s="12">
-        <f t="shared" ref="U16:Y16" si="19">+T37*$P$4</f>
+      <c r="X16" s="12">
+        <f t="shared" ref="X16:AB16" si="23">+W37*$S$4</f>
         <v>1.5822146199999991</v>
       </c>
-      <c r="V16" s="12">
-        <f t="shared" si="19"/>
+      <c r="Y16" s="12">
+        <f t="shared" si="23"/>
         <v>3.2788677383699985</v>
       </c>
-      <c r="W16" s="12">
-        <f t="shared" si="19"/>
+      <c r="Z16" s="12">
+        <f t="shared" si="23"/>
         <v>5.4244808329991443</v>
       </c>
-      <c r="X16" s="12">
-        <f t="shared" si="19"/>
+      <c r="AA16" s="12">
+        <f t="shared" si="23"/>
         <v>8.0798147963286269</v>
       </c>
-      <c r="Y16" s="12">
-        <f t="shared" si="19"/>
+      <c r="AB16" s="12">
+        <f t="shared" si="23"/>
         <v>11.312534975641132</v>
       </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
@@ -2141,8 +2203,11 @@
       <c r="AK16" s="12"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="12"/>
-    </row>
-    <row r="17" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+    </row>
+    <row r="17" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2178,44 +2243,47 @@
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
       <c r="Q17"/>
-      <c r="R17" s="4">
-        <f t="shared" si="17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17" s="4">
+        <f t="shared" si="21"/>
         <v>-4.8540000000000001</v>
       </c>
-      <c r="S17" s="4">
-        <f t="shared" si="18"/>
+      <c r="V17" s="4">
+        <f t="shared" si="22"/>
         <v>2.0860000000000003</v>
       </c>
-      <c r="T17" s="2">
-        <f>+S17*1.05</f>
+      <c r="W17" s="2">
+        <f>+V17*1.05</f>
         <v>2.1903000000000006</v>
       </c>
-      <c r="U17" s="2">
-        <f t="shared" ref="U17:Y17" si="20">+T17*1.05</f>
+      <c r="X17" s="2">
+        <f t="shared" ref="X17:AB17" si="24">+W17*1.05</f>
         <v>2.2998150000000006</v>
       </c>
-      <c r="V17" s="2">
-        <f t="shared" si="20"/>
+      <c r="Y17" s="2">
+        <f t="shared" si="24"/>
         <v>2.4148057500000006</v>
       </c>
-      <c r="W17" s="2">
-        <f t="shared" si="20"/>
+      <c r="Z17" s="2">
+        <f t="shared" si="24"/>
         <v>2.535546037500001</v>
       </c>
-      <c r="X17" s="2">
-        <f t="shared" si="20"/>
+      <c r="AA17" s="2">
+        <f t="shared" si="24"/>
         <v>2.6623233393750012</v>
       </c>
-      <c r="Y17" s="2">
-        <f t="shared" si="20"/>
+      <c r="AB17" s="2">
+        <f t="shared" si="24"/>
         <v>2.7954395063437514</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2251,44 +2319,47 @@
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
       <c r="Q18"/>
-      <c r="R18" s="4">
-        <f t="shared" si="17"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18" s="4">
+        <f t="shared" si="21"/>
         <v>1.085</v>
       </c>
-      <c r="S18" s="4">
-        <f t="shared" si="18"/>
+      <c r="V18" s="4">
+        <f t="shared" si="22"/>
         <v>0.91100000000000003</v>
       </c>
-      <c r="T18" s="2">
-        <f>+S18*1.01</f>
+      <c r="W18" s="2">
+        <f>+V18*1.01</f>
         <v>0.92011000000000009</v>
       </c>
-      <c r="U18" s="2">
-        <f t="shared" ref="U18:Y18" si="21">+T18*1.01</f>
+      <c r="X18" s="2">
+        <f t="shared" ref="X18:AB18" si="25">+W18*1.01</f>
         <v>0.92931110000000006</v>
       </c>
-      <c r="V18" s="2">
-        <f t="shared" si="21"/>
+      <c r="Y18" s="2">
+        <f t="shared" si="25"/>
         <v>0.93860421100000002</v>
       </c>
-      <c r="W18" s="2">
-        <f t="shared" si="21"/>
+      <c r="Z18" s="2">
+        <f t="shared" si="25"/>
         <v>0.94799025311000007</v>
       </c>
-      <c r="X18" s="2">
-        <f t="shared" si="21"/>
+      <c r="AA18" s="2">
+        <f t="shared" si="25"/>
         <v>0.95747015564110005</v>
       </c>
-      <c r="Y18" s="2">
-        <f t="shared" si="21"/>
+      <c r="AB18" s="2">
+        <f t="shared" si="25"/>
         <v>0.9670448571975111</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2324,26 +2395,20 @@
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
       <c r="Q19"/>
-      <c r="R19" s="4">
-        <f t="shared" si="17"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19" s="4">
+        <f t="shared" si="21"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="S19" s="4">
-        <f t="shared" si="18"/>
+      <c r="V19" s="4">
+        <f t="shared" si="22"/>
         <v>-0.14400000000000002</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0.15</v>
       </c>
       <c r="W19" s="2">
         <v>0.15</v>
@@ -2354,91 +2419,103 @@
       <c r="Y19" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="7">
-        <f t="shared" ref="B20:K20" si="22">+B15+B16+B17+B18+B19</f>
+        <f t="shared" ref="B20:K20" si="26">+B15+B16+B17+B18+B19</f>
         <v>6.3460000000000054</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7.335999999999987</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.630999999999994</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>14.850999999999992</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>19.696999999999999</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>22.658999999999999</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>29.791000000000007</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>42.848000000000049</v>
       </c>
-      <c r="J20" s="7">
-        <f t="shared" si="22"/>
-        <v>33.319999999999993</v>
+      <c r="J20" s="7" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>29.033999999999999</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
       <c r="Q20"/>
-      <c r="R20" s="4">
-        <f>+R15+R16+R17+R18+R19</f>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20" s="4">
+        <f>+U15+U16+U17+U18+U19</f>
         <v>31.16399999999998</v>
       </c>
-      <c r="S20" s="4">
-        <f>+S15+S16+S17+S18+S19</f>
+      <c r="V20" s="4">
+        <f>+V15+V16+V17+V18+V19</f>
         <v>114.99499999999991</v>
       </c>
-      <c r="T20" s="2">
-        <f t="shared" ref="T20:Y20" si="23">+T15+T16+T17+T18+T19</f>
+      <c r="W20" s="2">
+        <f t="shared" ref="W20:AB20" si="27">+W15+W16+W17+W18+W19</f>
         <v>153.20171999999991</v>
       </c>
-      <c r="U20" s="2">
-        <f t="shared" si="23"/>
+      <c r="X20" s="2">
+        <f t="shared" si="27"/>
         <v>199.60624921999988</v>
       </c>
-      <c r="V20" s="2">
-        <f t="shared" si="23"/>
+      <c r="Y20" s="2">
+        <f t="shared" si="27"/>
         <v>252.42506995637007</v>
       </c>
-      <c r="W20" s="2">
-        <f t="shared" si="23"/>
+      <c r="Z20" s="2">
+        <f t="shared" si="27"/>
         <v>312.39223097993914</v>
       </c>
-      <c r="X20" s="2">
-        <f t="shared" si="23"/>
+      <c r="AA20" s="2">
+        <f t="shared" si="27"/>
         <v>380.3200210955888</v>
       </c>
-      <c r="Y20" s="2">
-        <f t="shared" si="23"/>
+      <c r="AB20" s="2">
+        <f t="shared" si="27"/>
         <v>457.10705036143025</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2474,44 +2551,47 @@
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
       <c r="Q21"/>
-      <c r="R21" s="4">
-        <f t="shared" ref="R21:R22" si="24">SUM(B21:E21)</f>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21" s="4">
+        <f t="shared" ref="U21:U22" si="28">SUM(B21:E21)</f>
         <v>7.1920000000000002</v>
       </c>
-      <c r="S21" s="4">
+      <c r="V21" s="4">
         <f>SUM(F21:I21)</f>
         <v>20.887</v>
       </c>
-      <c r="T21" s="2">
-        <f>+T20*0.15</f>
+      <c r="W21" s="2">
+        <f>+W20*0.15</f>
         <v>22.980257999999985</v>
       </c>
-      <c r="U21" s="2">
-        <f t="shared" ref="U21:Y21" si="25">+U20*0.15</f>
+      <c r="X21" s="2">
+        <f t="shared" ref="X21:AB21" si="29">+X20*0.15</f>
         <v>29.94093738299998</v>
       </c>
-      <c r="V21" s="2">
-        <f t="shared" si="25"/>
+      <c r="Y21" s="2">
+        <f t="shared" si="29"/>
         <v>37.863760493455509</v>
       </c>
-      <c r="W21" s="2">
-        <f t="shared" si="25"/>
+      <c r="Z21" s="2">
+        <f t="shared" si="29"/>
         <v>46.858834646990871</v>
       </c>
-      <c r="X21" s="2">
-        <f t="shared" si="25"/>
+      <c r="AA21" s="2">
+        <f t="shared" si="29"/>
         <v>57.048003164338319</v>
       </c>
-      <c r="Y21" s="2">
-        <f t="shared" si="25"/>
+      <c r="AB21" s="2">
+        <f t="shared" si="29"/>
         <v>68.566057554214538</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2547,27 +2627,21 @@
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
       <c r="Q22"/>
-      <c r="R22" s="4">
-        <f t="shared" si="24"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22" s="4">
+        <f t="shared" si="28"/>
         <v>1.4569999999999999</v>
       </c>
-      <c r="S22" s="4">
+      <c r="V22" s="4">
         <f>SUM(F22:I22)</f>
         <v>-0.27800000000000002</v>
       </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
       <c r="W22" s="2">
         <v>0</v>
       </c>
@@ -2577,46 +2651,55 @@
       <c r="Y22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:39" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" ref="B23:J23" si="26">+B20-B21+B22</f>
+        <f t="shared" ref="B23:J23" si="30">+B20-B21+B22</f>
         <v>4.6700000000000053</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4.3829999999999867</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.45999999999999402</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>15.915999999999991</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>15.746999999999998</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>18.083000000000002</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>24.193000000000005</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>35.807000000000045</v>
       </c>
-      <c r="J23" s="8">
-        <f t="shared" si="26"/>
-        <v>27.082999999999995</v>
+      <c r="J23" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
       </c>
       <c r="K23" s="8">
         <f>+K20-K21+K22</f>
@@ -2624,239 +2707,245 @@
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="5">
-        <f>+R20-R21+R22</f>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="5">
+        <f>+U20-U21+U22</f>
         <v>25.428999999999981</v>
       </c>
-      <c r="S23" s="5">
-        <f>+S20-S21+S22</f>
+      <c r="V23" s="5">
+        <f>+V20-V21+V22</f>
         <v>93.829999999999899</v>
       </c>
-      <c r="T23" s="11">
-        <f t="shared" ref="T23:Y23" si="27">+T20-T21+T22</f>
+      <c r="W23" s="11">
+        <f t="shared" ref="W23:AB23" si="31">+W20-W21+W22</f>
         <v>130.22146199999992</v>
       </c>
-      <c r="U23" s="11">
-        <f t="shared" si="27"/>
+      <c r="X23" s="11">
+        <f t="shared" si="31"/>
         <v>169.6653118369999</v>
       </c>
-      <c r="V23" s="11">
-        <f t="shared" si="27"/>
+      <c r="Y23" s="11">
+        <f t="shared" si="31"/>
         <v>214.56130946291455</v>
       </c>
-      <c r="W23" s="11">
-        <f t="shared" si="27"/>
+      <c r="Z23" s="11">
+        <f t="shared" si="31"/>
         <v>265.53339633294826</v>
       </c>
-      <c r="X23" s="11">
-        <f t="shared" si="27"/>
+      <c r="AA23" s="11">
+        <f t="shared" si="31"/>
         <v>323.2720179312505</v>
       </c>
-      <c r="Y23" s="11">
-        <f t="shared" si="27"/>
+      <c r="AB23" s="11">
+        <f t="shared" si="31"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="Z23" s="11">
-        <f>+Y23*(1-$P$5)</f>
+      <c r="AC23" s="11">
+        <f>+AB23*(1-$S$5)</f>
         <v>388.54099280721573</v>
       </c>
-      <c r="AA23" s="11">
-        <f t="shared" ref="AA23:AM23" si="28">+Z23*(1-$P$5)</f>
+      <c r="AD23" s="11">
+        <f t="shared" ref="AD23:AP23" si="32">+AC23*(1-$S$5)</f>
         <v>388.54099280721573</v>
       </c>
-      <c r="AB23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AE23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AC23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AF23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AD23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AG23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AE23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AH23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AF23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AI23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AG23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AJ23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AH23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AK23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AI23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AL23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AJ23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AM23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AK23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AN23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AL23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AO23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
-      <c r="AM23" s="11">
-        <f t="shared" si="28"/>
+      <c r="AP23" s="11">
+        <f t="shared" si="32"/>
         <v>388.54099280721573</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" ref="B24:K24" si="29">+B23/B25</f>
+        <f t="shared" ref="B24:K24" si="33">+B23/B25</f>
         <v>0.3592311560950916</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.27608455784046987</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.6582114106357394E-2</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.39113262335078453</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.3867473779242474</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.44167462265555607</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.59341337885329626</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.8782493349052406</v>
       </c>
-      <c r="J24" s="4">
-        <f t="shared" si="29"/>
-        <v>0.66398360053914973</v>
+      <c r="J24" s="4" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.64668507848463597</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
       <c r="Q24"/>
-      <c r="R24">
-        <f>+R23/R25</f>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24">
+        <f>+U23/U25</f>
         <v>1.0452954869144342</v>
       </c>
-      <c r="S24">
-        <f>+S23/S25</f>
+      <c r="V24">
+        <f>+V23/V25</f>
         <v>2.2997759550568411</v>
       </c>
-      <c r="T24" s="2">
-        <f t="shared" ref="T24:AM24" si="30">+T23/T25</f>
+      <c r="W24" s="2">
+        <f t="shared" ref="W24:AP24" si="34">+W23/W25</f>
         <v>3.1917317184263907</v>
       </c>
-      <c r="U24" s="2">
-        <f t="shared" si="30"/>
+      <c r="X24" s="2">
+        <f t="shared" si="34"/>
         <v>4.1585015940525807</v>
       </c>
-      <c r="V24" s="2">
-        <f t="shared" si="30"/>
+      <c r="Y24" s="2">
+        <f t="shared" si="34"/>
         <v>5.2589037662615503</v>
       </c>
-      <c r="W24" s="2">
-        <f t="shared" si="30"/>
+      <c r="Z24" s="2">
+        <f t="shared" si="34"/>
         <v>6.5082310577756939</v>
       </c>
-      <c r="X24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AA24" s="2">
+        <f t="shared" si="34"/>
         <v>7.9234063069486798</v>
       </c>
-      <c r="Y24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AB24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="Z24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AC24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AA24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AD24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AB24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AE24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AC24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AF24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AD24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AG24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AE24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AH24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AF24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AI24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AG24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AJ24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AH24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AK24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AI24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AL24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AJ24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AM24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AK24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AN24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AL24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AO24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
-      <c r="AM24" s="2">
-        <f t="shared" si="30"/>
+      <c r="AP24" s="2">
+        <f t="shared" si="34"/>
         <v>9.5231507280395249</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2892,185 +2981,188 @@
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
       <c r="Q25"/>
-      <c r="R25" s="7">
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25" s="7">
         <f>AVERAGE(B25:E25)</f>
         <v>24.327092499999999</v>
       </c>
-      <c r="S25" s="7">
+      <c r="V25" s="7">
         <f>AVERAGE(F25:I25)</f>
         <v>40.799626500000002</v>
       </c>
-      <c r="T25" s="2">
-        <f>+S25</f>
+      <c r="W25" s="2">
+        <f>+V25</f>
         <v>40.799626500000002</v>
       </c>
-      <c r="U25" s="2">
-        <f t="shared" ref="U25:AM25" si="31">+T25</f>
+      <c r="X25" s="2">
+        <f t="shared" ref="X25:AP25" si="35">+W25</f>
         <v>40.799626500000002</v>
       </c>
-      <c r="V25" s="2">
-        <f t="shared" si="31"/>
+      <c r="Y25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="W25" s="2">
-        <f t="shared" si="31"/>
+      <c r="Z25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AA25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="Y25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AB25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="Z25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AC25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AA25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AD25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AB25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AE25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AC25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AF25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AD25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AG25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AE25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AH25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AF25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AI25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AG25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AJ25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AH25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AK25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AI25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AL25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AJ25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AM25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AK25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AN25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AL25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AO25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
-      <c r="AM25" s="2">
-        <f t="shared" si="31"/>
+      <c r="AP25" s="2">
+        <f t="shared" si="35"/>
         <v>40.799626500000002</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="6">
-        <f>+B9/B5</f>
+        <f t="shared" ref="B27:K27" si="36">+B9/B5</f>
         <v>0.15003290585368459</v>
       </c>
       <c r="C27" s="6">
-        <f>+C9/C5</f>
+        <f t="shared" si="36"/>
         <v>0.13723624694622935</v>
       </c>
       <c r="D27" s="6">
-        <f>+D9/D5</f>
+        <f t="shared" si="36"/>
         <v>0.17616681510648596</v>
       </c>
       <c r="E27" s="6">
-        <f>+E9/E5</f>
+        <f t="shared" si="36"/>
         <v>0.21236584822139418</v>
       </c>
       <c r="F27" s="6">
-        <f>+F9/F5</f>
+        <f t="shared" si="36"/>
         <v>0.23141388295499893</v>
       </c>
       <c r="G27" s="6">
-        <f>+G9/G5</f>
+        <f t="shared" si="36"/>
         <v>0.26359302553386016</v>
       </c>
       <c r="H27" s="6">
-        <f>+H9/H5</f>
+        <f t="shared" si="36"/>
         <v>0.27422586674299959</v>
       </c>
       <c r="I27" s="6">
-        <f>+I9/I5</f>
+        <f t="shared" si="36"/>
         <v>0.28535529977077451</v>
       </c>
       <c r="J27" s="6">
-        <f>+J9/J5</f>
+        <f t="shared" si="36"/>
         <v>0.26505016389394487</v>
       </c>
       <c r="K27" s="6">
-        <f>+K9/K5</f>
+        <f t="shared" si="36"/>
         <v>0.24591545580585908</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="R27" s="6">
-        <f>+R9/R5</f>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="U27" s="6">
+        <f t="shared" ref="U27:AB27" si="37">+U9/U5</f>
         <v>0.16959583407302203</v>
       </c>
-      <c r="S27" s="6">
-        <f>+S9/S5</f>
+      <c r="V27" s="6">
+        <f t="shared" si="37"/>
         <v>0.2680089396460229</v>
       </c>
-      <c r="T27" s="6">
-        <f>+T9/T5</f>
+      <c r="W27" s="6">
+        <f t="shared" si="37"/>
         <v>0.30128126057120369</v>
       </c>
-      <c r="U27" s="6">
-        <f>+U9/U5</f>
+      <c r="X27" s="6">
+        <f t="shared" si="37"/>
         <v>0.33304120327251258</v>
       </c>
-      <c r="V27" s="6">
-        <f>+V9/V5</f>
+      <c r="Y27" s="6">
+        <f t="shared" si="37"/>
         <v>0.36335751221467122</v>
       </c>
-      <c r="W27" s="6">
-        <f>+W9/W5</f>
+      <c r="Z27" s="6">
+        <f t="shared" si="37"/>
         <v>0.3922958071140043</v>
       </c>
-      <c r="X27" s="6">
-        <f>+X9/X5</f>
+      <c r="AA27" s="6">
+        <f t="shared" si="37"/>
         <v>0.41991872497245869</v>
       </c>
-      <c r="Y27" s="6">
-        <f>+Y9/Y5</f>
+      <c r="AB27" s="6">
+        <f t="shared" si="37"/>
         <v>0.4462860556555287</v>
       </c>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
@@ -3082,88 +3174,91 @@
       <c r="AK27" s="6"/>
       <c r="AL27" s="6"/>
       <c r="AM27" s="6"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="6">
-        <f>+B15/B5</f>
+        <f t="shared" ref="B28:K28" si="38">+B15/B5</f>
         <v>6.6532078760605504E-2</v>
       </c>
       <c r="C28" s="6">
-        <f>+C15/C5</f>
+        <f t="shared" si="38"/>
         <v>6.6380707426608621E-2</v>
       </c>
       <c r="D28" s="6">
-        <f>+D15/D5</f>
+        <f t="shared" si="38"/>
         <v>3.3188018562789995E-2</v>
       </c>
       <c r="E28" s="6">
-        <f>+E15/E5</f>
+        <f t="shared" si="38"/>
         <v>0.11990860163689047</v>
       </c>
       <c r="F28" s="6">
-        <f>+F15/F5</f>
+        <f t="shared" si="38"/>
         <v>0.1397215897086786</v>
       </c>
       <c r="G28" s="6">
-        <f>+G15/G5</f>
+        <f t="shared" si="38"/>
         <v>0.15281133677267683</v>
       </c>
       <c r="H28" s="6">
-        <f>+H15/H5</f>
+        <f t="shared" si="38"/>
         <v>0.1779173472079566</v>
       </c>
       <c r="I28" s="6">
-        <f>+I15/I5</f>
+        <f t="shared" si="38"/>
         <v>0.1516852784826162</v>
       </c>
-      <c r="J28" s="6">
-        <f>+J15/J5</f>
-        <v>0.13867060702493658</v>
+      <c r="J28" s="6" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
       </c>
       <c r="K28" s="6">
-        <f>+K15/K5</f>
+        <f t="shared" si="38"/>
         <v>8.8294994322330761E-2</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="R28" s="6">
-        <f>+R15/R5</f>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="U28" s="6">
+        <f t="shared" ref="U28:AB28" si="39">+U15/U5</f>
         <v>7.1465155048962239E-2</v>
       </c>
-      <c r="S28" s="6">
-        <f>+S15/S5</f>
+      <c r="V28" s="6">
+        <f t="shared" si="39"/>
         <v>0.15639833994240085</v>
       </c>
-      <c r="T28" s="6">
-        <f>+T15/T5</f>
+      <c r="W28" s="6">
+        <f t="shared" si="39"/>
         <v>0.1933073939108057</v>
       </c>
-      <c r="U28" s="6">
-        <f>+U15/U5</f>
+      <c r="X28" s="6">
+        <f t="shared" si="39"/>
         <v>0.22855424206066735</v>
       </c>
-      <c r="V28" s="6">
-        <f>+V15/V5</f>
+      <c r="Y28" s="6">
+        <f t="shared" si="39"/>
         <v>0.26221502826314214</v>
       </c>
-      <c r="W28" s="6">
-        <f>+W15/W5</f>
+      <c r="Z28" s="6">
+        <f t="shared" si="39"/>
         <v>0.29436235337241362</v>
       </c>
-      <c r="X28" s="6">
-        <f>+X15/X5</f>
+      <c r="AA28" s="6">
+        <f t="shared" si="39"/>
         <v>0.32506544358882217</v>
       </c>
-      <c r="Y28" s="6">
-        <f>+Y15/Y5</f>
+      <c r="AB28" s="6">
+        <f t="shared" si="39"/>
         <v>0.35439031055931525</v>
       </c>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
@@ -3175,88 +3270,91 @@
       <c r="AK28" s="6"/>
       <c r="AL28" s="6"/>
       <c r="AM28" s="6"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="6">
-        <f>+B23/B5</f>
+        <f t="shared" ref="B29:K29" si="40">+B23/B5</f>
         <v>4.1532523434303949E-2</v>
       </c>
       <c r="C29" s="6">
-        <f>+C23/C5</f>
+        <f t="shared" si="40"/>
         <v>3.5339079394002812E-2</v>
       </c>
       <c r="D29" s="6">
-        <f>+D23/D5</f>
+        <f t="shared" si="40"/>
         <v>3.5938061532210974E-3</v>
       </c>
       <c r="E29" s="6">
-        <f>+E23/E5</f>
+        <f t="shared" si="40"/>
         <v>0.12671570969077411</v>
       </c>
       <c r="F29" s="6">
-        <f>+F23/F5</f>
+        <f t="shared" si="40"/>
         <v>0.12321885490269724</v>
       </c>
       <c r="G29" s="6">
-        <f>+G23/G5</f>
+        <f t="shared" si="40"/>
         <v>0.11808920525044082</v>
       </c>
       <c r="H29" s="6">
-        <f>+H23/H5</f>
+        <f t="shared" si="40"/>
         <v>0.13578833341752403</v>
       </c>
       <c r="I29" s="6">
-        <f>+I23/I5</f>
+        <f t="shared" si="40"/>
         <v>0.14630807765070275</v>
       </c>
-      <c r="J29" s="6">
-        <f>+J23/J5</f>
-        <v>0.1078673076386925</v>
+      <c r="J29" s="6" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
       </c>
       <c r="K29" s="6">
-        <f>+K23/K5</f>
+        <f t="shared" si="40"/>
         <v>8.5904904669842713E-2</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="R29" s="6">
-        <f>+R23/R5</f>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="U29" s="6">
+        <f t="shared" ref="U29:AB29" si="41">+U23/U5</f>
         <v>5.1888399844104184E-2</v>
       </c>
-      <c r="S29" s="6">
-        <f>+S23/S5</f>
+      <c r="V29" s="6">
+        <f t="shared" si="41"/>
         <v>0.13331325275527778</v>
       </c>
-      <c r="T29" s="6">
-        <f>+T23/T5</f>
+      <c r="W29" s="6">
+        <f t="shared" si="41"/>
         <v>0.16819825678710829</v>
       </c>
-      <c r="U29" s="6">
-        <f>+U23/U5</f>
+      <c r="X29" s="6">
+        <f t="shared" si="41"/>
         <v>0.19922291854293384</v>
       </c>
-      <c r="V29" s="6">
-        <f>+V23/V5</f>
+      <c r="Y29" s="6">
+        <f t="shared" si="41"/>
         <v>0.22903664018821485</v>
       </c>
-      <c r="W29" s="6">
-        <f>+W23/W5</f>
+      <c r="Z29" s="6">
+        <f t="shared" si="41"/>
         <v>0.25767958862878981</v>
       </c>
-      <c r="X29" s="6">
-        <f>+X23/X5</f>
+      <c r="AA29" s="6">
+        <f t="shared" si="41"/>
         <v>0.28519131592935659</v>
       </c>
-      <c r="Y29" s="6">
-        <f>+Y23/Y5</f>
+      <c r="AB29" s="6">
+        <f t="shared" si="41"/>
         <v>0.31161068665188874</v>
       </c>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
@@ -3268,8 +3366,11 @@
       <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
       <c r="AM29" s="6"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3282,77 +3383,77 @@
         <v>0.16848418756815733</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" ref="D30:K30" si="32">+D21/D20</f>
+        <f t="shared" ref="D30:K30" si="42">+D21/D20</f>
         <v>0.75028506271379869</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.15992189078176564</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.19068893740163476</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.18840195948629684</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.18760699540129566</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.16973954443614617</v>
       </c>
-      <c r="J30" s="6">
-        <f t="shared" si="32"/>
-        <v>0.18382352941176475</v>
+      <c r="J30" s="6" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>7.1123510367155751E-2</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="O30" t="s">
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="R30" t="s">
         <v>9</v>
       </c>
-      <c r="R30" s="6">
-        <f t="shared" ref="R30:S30" si="33">+R21/R20</f>
+      <c r="U30" s="6">
+        <f t="shared" ref="U30:V30" si="43">+U21/U20</f>
         <v>0.23077910409446814</v>
       </c>
-      <c r="S30" s="6">
-        <f t="shared" si="33"/>
+      <c r="V30" s="6">
+        <f t="shared" si="43"/>
         <v>0.18163398408626477</v>
       </c>
-      <c r="T30" s="6">
-        <f t="shared" ref="T30:Y30" si="34">+T21/T20</f>
+      <c r="W30" s="6">
+        <f t="shared" ref="W30:AB30" si="44">+W21/W20</f>
         <v>0.15</v>
       </c>
-      <c r="U30" s="6">
-        <f t="shared" si="34"/>
+      <c r="X30" s="6">
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
-      <c r="V30" s="6">
-        <f t="shared" si="34"/>
+      <c r="Y30" s="6">
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
-      <c r="W30" s="6">
-        <f t="shared" si="34"/>
+      <c r="Z30" s="6">
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
-      <c r="X30" s="6">
-        <f t="shared" si="34"/>
+      <c r="AA30" s="6">
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
-      <c r="Y30" s="6">
-        <f t="shared" si="34"/>
+      <c r="AB30" s="6">
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
@@ -3364,8 +3465,11 @@
       <c r="AK30" s="6"/>
       <c r="AL30" s="6"/>
       <c r="AM30" s="6"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3396,37 +3500,37 @@
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="S32" s="6">
-        <f>+S5/R5-1</f>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="V32" s="6">
+        <f t="shared" ref="V32:AB32" si="45">+V5/U5-1</f>
         <v>0.43618169612158231</v>
       </c>
-      <c r="T32" s="6">
-        <f>+T5/S5-1</f>
+      <c r="W32" s="6">
+        <f t="shared" si="45"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U32" s="6">
-        <f>+U5/T5-1</f>
+      <c r="X32" s="6">
+        <f t="shared" si="45"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="V32" s="6">
-        <f>+V5/U5-1</f>
+      <c r="Y32" s="6">
+        <f t="shared" si="45"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="W32" s="6">
-        <f>+W5/V5-1</f>
+      <c r="Z32" s="6">
+        <f t="shared" si="45"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="X32" s="6">
-        <f>+X5/W5-1</f>
+      <c r="AA32" s="6">
+        <f t="shared" si="45"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Y32" s="6">
-        <f>+Y5/X5-1</f>
+      <c r="AB32" s="6">
+        <f t="shared" si="45"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
@@ -3438,8 +3542,11 @@
       <c r="AK32" s="6"/>
       <c r="AL32" s="6"/>
       <c r="AM32" s="6"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -3470,37 +3577,37 @@
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="S33" s="6">
-        <f>+S9/R9-1</f>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="V33" s="6">
+        <f t="shared" ref="V33:AB33" si="46">+V9/U9-1</f>
         <v>1.2695695069422719</v>
       </c>
-      <c r="T33" s="6">
-        <f>+T9/S9-1</f>
+      <c r="W33" s="6">
+        <f t="shared" si="46"/>
         <v>0.23656094108666048</v>
       </c>
-      <c r="U33" s="6">
-        <f>+U9/T9-1</f>
+      <c r="X33" s="6">
+        <f t="shared" si="46"/>
         <v>0.21595788236282676</v>
       </c>
-      <c r="V33" s="6">
-        <f>+V9/U9-1</f>
+      <c r="Y33" s="6">
+        <f t="shared" si="46"/>
         <v>0.20013157383738922</v>
       </c>
-      <c r="W33" s="6">
-        <f>+W9/V9-1</f>
+      <c r="Z33" s="6">
+        <f t="shared" si="46"/>
         <v>0.18760552161216926</v>
       </c>
-      <c r="X33" s="6">
-        <f>+X9/W9-1</f>
+      <c r="AA33" s="6">
+        <f t="shared" si="46"/>
         <v>0.17745484171200854</v>
       </c>
-      <c r="Y33" s="6">
-        <f>+Y9/X9-1</f>
+      <c r="AB33" s="6">
+        <f t="shared" si="46"/>
         <v>0.16907066064576992</v>
       </c>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6"/>
@@ -3512,8 +3619,11 @@
       <c r="AK33" s="6"/>
       <c r="AL33" s="6"/>
       <c r="AM33" s="6"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3534,9 +3644,9 @@
         <f>+I15/E15-1</f>
         <v>1.4648429719142202</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="6" t="e">
         <f>+J15/F15-1</f>
-        <v>0.94987679211469556</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K34" s="6">
         <f>+K15/G15-1</f>
@@ -3544,37 +3654,37 @@
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="S34" s="6">
-        <f>+S15/R15-1</f>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="V34" s="6">
+        <f>+V15/U15-1</f>
         <v>2.1430203009450932</v>
       </c>
-      <c r="T34" s="6">
-        <f t="shared" ref="T34:Y34" si="35">+T15/S15-1</f>
+      <c r="W34" s="6">
+        <f t="shared" ref="W34:AB34" si="47">+W15/V15-1</f>
         <v>0.35959328839550153</v>
       </c>
-      <c r="U34" s="6">
-        <f t="shared" si="35"/>
+      <c r="X34" s="6">
+        <f t="shared" si="47"/>
         <v>0.30056932215814491</v>
       </c>
-      <c r="V34" s="6">
-        <f t="shared" si="35"/>
+      <c r="Y34" s="6">
+        <f t="shared" si="47"/>
         <v>0.26200471489342969</v>
       </c>
-      <c r="W34" s="6">
-        <f t="shared" si="35"/>
+      <c r="Z34" s="6">
+        <f t="shared" si="47"/>
         <v>0.23485900428525963</v>
       </c>
-      <c r="X34" s="6">
-        <f t="shared" si="35"/>
+      <c r="AA34" s="6">
+        <f t="shared" si="47"/>
         <v>0.21473409847121627</v>
       </c>
-      <c r="Y34" s="6">
-        <f t="shared" si="35"/>
+      <c r="AB34" s="6">
+        <f t="shared" si="47"/>
         <v>0.19923341377481196</v>
       </c>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
       <c r="AE34" s="6"/>
@@ -3586,8 +3696,11 @@
       <c r="AK34" s="6"/>
       <c r="AL34" s="6"/>
       <c r="AM34" s="6"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -3608,9 +3721,9 @@
         <f>+I23/E23-1</f>
         <v>1.2497486805730125</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="6" t="e">
         <f>+J23/F23-1</f>
-        <v>0.71988315234647859</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K35" s="6">
         <f>+K23/G23-1</f>
@@ -3618,37 +3731,37 @@
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="S35" s="6">
-        <f>+S23/R23-1</f>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="V35" s="6">
+        <f>+V23/U23-1</f>
         <v>2.6898816312084617</v>
       </c>
-      <c r="T35" s="6">
-        <f t="shared" ref="T35:Y35" si="36">+T23/S23-1</f>
+      <c r="W35" s="6">
+        <f t="shared" ref="W35:AB35" si="48">+W23/V23-1</f>
         <v>0.38784463391239532</v>
       </c>
-      <c r="U35" s="6">
-        <f t="shared" si="36"/>
+      <c r="X35" s="6">
+        <f t="shared" si="48"/>
         <v>0.30289822607735739</v>
       </c>
-      <c r="V35" s="6">
-        <f t="shared" si="36"/>
+      <c r="Y35" s="6">
+        <f t="shared" si="48"/>
         <v>0.2646150656242976</v>
       </c>
-      <c r="W35" s="6">
-        <f t="shared" si="36"/>
+      <c r="Z35" s="6">
+        <f t="shared" si="48"/>
         <v>0.2375642048308988</v>
       </c>
-      <c r="X35" s="6">
-        <f t="shared" si="36"/>
+      <c r="AA35" s="6">
+        <f t="shared" si="48"/>
         <v>0.2174439162669568</v>
       </c>
-      <c r="Y35" s="6">
-        <f t="shared" si="36"/>
+      <c r="AB35" s="6">
+        <f t="shared" si="48"/>
         <v>0.20190109646250254</v>
       </c>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
       <c r="AE35" s="6"/>
@@ -3660,8 +3773,11 @@
       <c r="AK35" s="6"/>
       <c r="AL35" s="6"/>
       <c r="AM35" s="6"/>
-    </row>
-    <row r="37" spans="1:39" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+    </row>
+    <row r="37" spans="1:42" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
@@ -3671,36 +3787,36 @@
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="S37" s="11">
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="V37" s="11">
         <v>28</v>
       </c>
-      <c r="T37" s="11">
-        <f>+S37+T23</f>
+      <c r="W37" s="11">
+        <f>+V37+W23</f>
         <v>158.22146199999992</v>
       </c>
-      <c r="U37" s="11">
-        <f t="shared" ref="U37:Y37" si="37">+T37+U23</f>
+      <c r="X37" s="11">
+        <f t="shared" ref="X37:AB37" si="49">+W37+X23</f>
         <v>327.88677383699985</v>
       </c>
-      <c r="V37" s="11">
-        <f t="shared" si="37"/>
+      <c r="Y37" s="11">
+        <f t="shared" si="49"/>
         <v>542.4480832999144</v>
       </c>
-      <c r="W37" s="11">
-        <f t="shared" si="37"/>
+      <c r="Z37" s="11">
+        <f t="shared" si="49"/>
         <v>807.9814796328626</v>
       </c>
-      <c r="X37" s="11">
-        <f t="shared" si="37"/>
+      <c r="AA37" s="11">
+        <f t="shared" si="49"/>
         <v>1131.2534975641131</v>
       </c>
-      <c r="Y37" s="11">
-        <f t="shared" si="37"/>
+      <c r="AB37" s="11">
+        <f t="shared" si="49"/>
         <v>1519.7944903713287</v>
       </c>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
       <c r="AC37" s="11"/>
       <c r="AD37" s="11"/>
       <c r="AE37" s="11"/>
@@ -3712,27 +3828,30 @@
       <c r="AK37" s="11"/>
       <c r="AL37" s="11"/>
       <c r="AM37" s="11"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="P38" s="6"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="P39" s="6"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="P40" s="6"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="P43" s="7"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="P46" s="6"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="S41" s="10"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="S43" s="7"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="S46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
